--- a/viestintahistoria.xlsx
+++ b/viestintahistoria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/AA40644E-E20B-4BD0-A79A-C0EA8C714759/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2875" documentId="8_{E2BA836F-4FC1-9B4C-998E-FC8F18FFD2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F13E661-26EA-4846-A8A1-E704FB889EBE}"/>
+  <xr:revisionPtr revIDLastSave="3347" documentId="8_{E2BA836F-4FC1-9B4C-998E-FC8F18FFD2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80836135-9158-5D44-B4BA-DE1FFCF25BE9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <sheet name="Sheet10" sheetId="13" r:id="rId12"/>
     <sheet name="Sheet11" sheetId="14" r:id="rId13"/>
     <sheet name="Johdanto" sheetId="15" r:id="rId14"/>
-    <sheet name="Sheet13" sheetId="16" r:id="rId15"/>
+    <sheet name="Premiere" sheetId="17" r:id="rId15"/>
+    <sheet name="Sheet13" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet14" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$C$8</definedName>
@@ -35,6 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">EAA!$A$1:$D$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">JAA!$A$1:$B$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet9!$A$49:$D$783</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Sheet14!$A$1:$B$453</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7270" uniqueCount="4129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7729" uniqueCount="4581">
   <si>
     <t>Alku</t>
   </si>
@@ -18669,6 +18672,1365 @@
   </si>
   <si>
     <t>Mikä tarkoittaa, että teistien puolustamat todisteet älykkäästä suunnittelusta johtavat juuri päinvastaiseen johtopäätökseen: suunnittelijaa ei ole.</t>
+  </si>
+  <si>
+    <t>1. The Origin of the Earth. 00:00</t>
+  </si>
+  <si>
+    <t>　4.567 billion years ago : The formation of the Solar System.</t>
+  </si>
+  <si>
+    <t>　4.56 billion years:ago : The formation of the Earth.</t>
+  </si>
+  <si>
+    <t>　4.55 billion years ago : Giant impact.</t>
+  </si>
+  <si>
+    <t>2. Initiation of Plate Tectonics. 02:53</t>
+  </si>
+  <si>
+    <t>　4.37-4.20 billion years ago : The formation of the atmosphere and ocean.</t>
+  </si>
+  <si>
+    <t>　4.37-4.20 billion years ago : The initiation plate tectonics.</t>
+  </si>
+  <si>
+    <t>3. Birth of Proto-life. 06:57</t>
+  </si>
+  <si>
+    <t>　4.10(4.20?) billion years ago : The birth of first proto-life.</t>
+  </si>
+  <si>
+    <t>4. The Initial Stage of Life. 10:53</t>
+  </si>
+  <si>
+    <t>　4.37-4.20 billion years ago : The loss of the primordial continent and the generation of a strong geomagnetic field.</t>
+  </si>
+  <si>
+    <t>　4.20 billion years ago : The emergence of sun-powered life.</t>
+  </si>
+  <si>
+    <t>　4.10 billion tears ago : Mass extinction.</t>
+  </si>
+  <si>
+    <t>5. Second Stage of Evolution of Life. 16:36</t>
+  </si>
+  <si>
+    <t>　2.90 billion years ago : The emergence of photosynthetic life.</t>
+  </si>
+  <si>
+    <t>　2.70 billion years ago : Mantle overturn.</t>
+  </si>
+  <si>
+    <t>6. Third Stage of the Evolution of Life. 20:35</t>
+  </si>
+  <si>
+    <t>　2.30 billion years ago : Mass extinction by snowball Earth.</t>
+  </si>
+  <si>
+    <t>　2.10 billion years ago : From prokaryotes to eukaryotes.</t>
+  </si>
+  <si>
+    <t>7: The Dawn of the Cambrian Explosion. 25:07</t>
+  </si>
+  <si>
+    <t>　700-600 million years ago : The Sturtian Glaciation</t>
+  </si>
+  <si>
+    <t>　700-600 million years ago : The Leaking Earth.</t>
+  </si>
+  <si>
+    <t>8: The Cambrian Explosion. 30:57</t>
+  </si>
+  <si>
+    <t>　640 million years ago : The Origin of Multicellular Life.  The Marinoan Glaciation.</t>
+  </si>
+  <si>
+    <t>　580 million years ago : Appearance of Ediacaran Fauna. The Gaskiers Glaciation.</t>
+  </si>
+  <si>
+    <t>　550 million years ago : Evolution Responds to Environmental Changes</t>
+  </si>
+  <si>
+    <t>　540 million years ago : The First Cambrian Organisms</t>
+  </si>
+  <si>
+    <t>9: The Paleozoic Era. 37:06</t>
+  </si>
+  <si>
+    <t>　600 million years ago : Expanding Habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　540 million years ago : The Co-evolution of Planets and Insects </t>
+  </si>
+  <si>
+    <t>　550-540 million years ago : The Evolution of Vertebrates</t>
+  </si>
+  <si>
+    <t>　260-250 million years ago : The Largest Mass extinction of the Phanerozoic Eon. Collision with a Dark nebula</t>
+  </si>
+  <si>
+    <t>10: From the Mesozoic to the birth of human beings. 43:23</t>
+  </si>
+  <si>
+    <t>　Dispersion and amalgamation of continents, and the evolution of life.</t>
+  </si>
+  <si>
+    <t>　The birth of primates.</t>
+  </si>
+  <si>
+    <t>　66 million years ago : Dinosaur extinction.</t>
+  </si>
+  <si>
+    <t>11: The Humanozoic eon : the appearance of human beings and civilization. 50:26</t>
+  </si>
+  <si>
+    <t>　Evolution into primates.</t>
+  </si>
+  <si>
+    <t>　The birth of human beings, the fourth animal category : the Humanozoic eon.</t>
+  </si>
+  <si>
+    <t>　10000 years ago : The Agricultural Revolution.</t>
+  </si>
+  <si>
+    <t>　5000 years ago : The Urban Revolution.</t>
+  </si>
+  <si>
+    <t>　2400 years ago : The Religious Revolution.</t>
+  </si>
+  <si>
+    <t>　300 years ago : The Industrial Revolution.</t>
+  </si>
+  <si>
+    <t>　The Information Revolution.</t>
+  </si>
+  <si>
+    <t>12: Future of the Earth. 57:54</t>
+  </si>
+  <si>
+    <t>　Challenges for Human society.</t>
+  </si>
+  <si>
+    <t>　Future of Human society.</t>
+  </si>
+  <si>
+    <t>　Future of the Earth.</t>
+  </si>
+  <si>
+    <t>　200 million years later : Formation of the supercontinent.</t>
+  </si>
+  <si>
+    <t>　400 million years later : Extinction of the C4 plants.</t>
+  </si>
+  <si>
+    <t>　1 billion years later : Cessation of plate tectonics.</t>
+  </si>
+  <si>
+    <t>　1.5 billion years later : Disappearance of the ocean.</t>
+  </si>
+  <si>
+    <t>　4.5 billion years later : Collision between the Milky Way Galaxy and the Andromeda Galaxy.</t>
+  </si>
+  <si>
+    <t>　8 billion years later : Annihilation of the Earth.</t>
+  </si>
+  <si>
+    <t>4,37-4,20 miljardia vuotta sitten : Alkumantereen menetys ja vahvan geomagneettisen kentän syntyminen.</t>
+  </si>
+  <si>
+    <t>4,20 miljardia vuotta sitten: Auringon voimakkaan elämän synty.</t>
+  </si>
+  <si>
+    <t>4,10 miljardia kyynelettä sitten: massasukupuutto.</t>
+  </si>
+  <si>
+    <t>5. Elämän evoluution toinen vaihe. 16:36</t>
+  </si>
+  <si>
+    <t>2,90 miljardia vuotta sitten: Fotosynteettisen elämän synty.</t>
+  </si>
+  <si>
+    <t>2,70 miljardia vuotta sitten: Vaipan kaatuminen.</t>
+  </si>
+  <si>
+    <t>6. Elämän evoluution kolmas vaihe. 20:35</t>
+  </si>
+  <si>
+    <t>2,10 miljardia vuotta sitten: Prokaryooteista eukaryootiksi.</t>
+  </si>
+  <si>
+    <t>7: Kambrian räjähdyksen kynnyksellä. 25:07</t>
+  </si>
+  <si>
+    <t>700-600 miljoonaa vuotta sitten: Sturtian jäätikkö</t>
+  </si>
+  <si>
+    <t>8: Kambrian räjähdys. 30:57</t>
+  </si>
+  <si>
+    <t>640 miljoonaa vuotta sitten: Monisoluisen elämän synty. Marinoan jäätikkö.</t>
+  </si>
+  <si>
+    <t>580 miljoonaa vuotta sitten: Ediacaran faunan esiintyminen. Gaskiersin jäätikkö.</t>
+  </si>
+  <si>
+    <t>550 miljoonaa vuotta sitten: Evoluutio reagoi ympäristön muutoksiin</t>
+  </si>
+  <si>
+    <t>540 miljoonaa vuotta sitten: Ensimmäiset kambrian organismit</t>
+  </si>
+  <si>
+    <t>9: Paleotsoinen aikakausi. 37:06</t>
+  </si>
+  <si>
+    <t>540 miljoonaa vuotta sitten: Planeettojen ja hyönteisten yhteisevoluutio</t>
+  </si>
+  <si>
+    <t>550-540 miljoonaa vuotta sitten: Selkärankaisten evoluutio</t>
+  </si>
+  <si>
+    <t>260-250 miljoonaa vuotta sitten: Fanerotsooisen eonin suurin massasukupuutto. Törmäys tumman sumun kanssa</t>
+  </si>
+  <si>
+    <t>10: Mesotsooisesta ajasta ihmisten syntymiseen. 43:23</t>
+  </si>
+  <si>
+    <t>11: Humanozoic eon: ihmisten ja sivilisaation ilmestyminen. 50:26</t>
+  </si>
+  <si>
+    <t>12: Maan tulevaisuus. 57:54</t>
+  </si>
+  <si>
+    <t>4,5 miljardia vuotta myöhemmin: Linnunradan ja Andromedan galaksin törmäys.</t>
+  </si>
+  <si>
+    <t>　1.90-0.80 billion years ago : The Formation of a Supercontinent.</t>
+  </si>
+  <si>
+    <t>1,90-0,80 miljardia vuotta sitten : Supermantereen muodostuminen.</t>
+  </si>
+  <si>
+    <t>1. Maan alkuperä. 00:00</t>
+  </si>
+  <si>
+    <t>4,567 miljardia vuotta sitten : Aurinkokunnan muodostuminen.</t>
+  </si>
+  <si>
+    <t>4,56 miljardia vuotta sitten: Maan muodostuminen.</t>
+  </si>
+  <si>
+    <t>4,55 miljardia vuotta sitten: jättimäinen vaikutus.</t>
+  </si>
+  <si>
+    <t>4,37-4,20 miljardia vuotta sitten : Ilmakehän ja valtameren muodostuminen.</t>
+  </si>
+  <si>
+    <t>3. Proto-elämän syntymä. 06:57</t>
+  </si>
+  <si>
+    <t>4.10(4.20?) miljardia vuotta sitten : Ensimmäisen protoelämän synty.</t>
+  </si>
+  <si>
+    <t>4. Elämän alkuvaihe. 10:53</t>
+  </si>
+  <si>
+    <t>2. Laattojen muodostuminen 02:53</t>
+  </si>
+  <si>
+    <t>4,37-4,20 miljardia vuotta sitten: Laattojen synty.</t>
+  </si>
+  <si>
+    <t>2,30 miljardia vuotta sitten: Maan muodostuminen lumipalloksi aiheutti massasukupuuton</t>
+  </si>
+  <si>
+    <t>700-600 miljoonaa vuotta sitten: Vuotava maa</t>
+  </si>
+  <si>
+    <t>600 miljoonaa vuotta sitten : Kasvavat elinympäristöt</t>
+  </si>
+  <si>
+    <t>Mannerten hajoaminen ja sulautuminen sekä elämän kehitys</t>
+  </si>
+  <si>
+    <t>Kädellisten syntymä</t>
+  </si>
+  <si>
+    <t>66 miljoonaa vuotta sitten: dinosaurusten sukupuutto</t>
+  </si>
+  <si>
+    <t>Evoluutio kädellisiksi</t>
+  </si>
+  <si>
+    <t>Ihmisten syntymä, neljäs eläinluokka: humanotsoinen eon</t>
+  </si>
+  <si>
+    <t>10 000 vuotta sitten: Maatalouden vallankumous</t>
+  </si>
+  <si>
+    <t>5000 vuotta sitten: Kaupunkien vallankumous</t>
+  </si>
+  <si>
+    <t>2400 vuotta sitten: Uskontojen vallankumous</t>
+  </si>
+  <si>
+    <t>300 vuotta sitten: Teollinen vallankumous</t>
+  </si>
+  <si>
+    <t>Tietojen vallankumous</t>
+  </si>
+  <si>
+    <t>Ihmisyhteiskunnan haasteet</t>
+  </si>
+  <si>
+    <t>Ihmisyhteiskunnan tulevaisuus</t>
+  </si>
+  <si>
+    <t>Maan tulevaisuus</t>
+  </si>
+  <si>
+    <t>200 miljoonaa vuotta myöhemmin: Supermantereen muodostuminen</t>
+  </si>
+  <si>
+    <t>400 miljoonaa vuotta myöhemmin: C4-kasvien sukupuuttoon</t>
+  </si>
+  <si>
+    <t>Miljardi vuotta myöhemmin: Levytektoniikan loppuminen</t>
+  </si>
+  <si>
+    <t>1,5 miljardia vuotta myöhemmin: valtameren katoaminen</t>
+  </si>
+  <si>
+    <t>8 miljardia vuotta myöhemmin: Maan tuhoutuminen</t>
+  </si>
+  <si>
+    <t>Abstraktimmat ajatukset ovat vain korkeamman tason esityksiä. Ne on rakennettu hierarkioista tai esitysten portaista (eli esitysten esityksistä). Yksi asia muistuttaa meitä toisesta jonkin samanlaisen ominaisuuden vuoksi. Pohjalla ovat edelleen fyysiset aistihavainnot ja liikkeet, joille kaikki muut ajatukset rakentuvat. Abstraktit ajatukset ovat pohjimmiltaan edelleen vain "karttoja", jotka vastaavat ulkoista ympäristöä ja yksilön asemaa siinä.</t>
+  </si>
+  <si>
+    <t>Luokittelu analogian tekemisen avulla on "kaiken ajattelun liikkeellepaneva voima".  Aivomme havaitsevat yhtäläisyyksiä tai vastaavuuksia uusien ja aiemmin kohtaamien tilanteiden välillä, mikä mahdollistaa aiemmin opitun tiedon soveltamisen uuteen tilanteeseen. "Analogian ydin on, että se kartoittaa jonkin mentaalisen rakenteen toisessa mentaalirakenteessa”.</t>
+  </si>
+  <si>
+    <t>Kieli on täynnä esimerkkejä tavoista, joilla ajattelu rakentuu analogian tekemisestä. Sanat edustavat aisteillamme havaitsemia konkreettisia asioita.</t>
+  </si>
+  <si>
+    <t>Tietoinen itsetunto syntyy itseään viittaavien symbolisten esitysten silmukoista</t>
+  </si>
+  <si>
+    <t>Itsetunto alkaa hermoston oman kehon kartasta</t>
+  </si>
+  <si>
+    <t>Neurotieteilijä Antonio Damasion mukaan yksinkertainen organismi kehittää "itsetietoisuuden" alkeellisen muodon muodostamalla kartan kehostaan ​​ja sen sijainnista sen miehittämässä fyysisessä tilassa. Damasio kutsuu kaikkein alkeellisinta esikuvaa itsestä tiedostamattomaksi tilaksi, joka voi olla monilla lajeilla. Se on hyvin perustietoisuuden taso, joka koostuu hermokuvioista, jotka edustavat tai kartoittavat kehon fyysistä rakennetta.</t>
+  </si>
+  <si>
+    <t>Aivojen lukeminen ajatusmuotojen perusteella</t>
+  </si>
+  <si>
+    <t>Painavia ajatuksia</t>
+  </si>
+  <si>
+    <t>Aivot tarvitsevat paljon energiaa tehdäkseen työtään, ja ne käyttävät 20 % kehon energiankulutuksesta levossa, vaikka niiden osuus on vain 2 % kehon painosta. Aivojen kalorien polttonopeus kasvaa, kun ne ovat mukana kognitiivisesti vaativissa tehtävissä. Koska ajatukset ovat energiasignaaleja, on ajatusta välittävällä energialla siksi massaa. Myös energeettistä signaalia koodaavilla ioneilla ja molekyyleillä on massa. </t>
+  </si>
+  <si>
+    <t>Tieto on fyysistä ja suhteellista, ja me olemme tiedon verkostoja.</t>
+  </si>
+  <si>
+    <t>Ajatukset ovat aineen esityksiä ja ne on koodattu aineeseen. Niillä on muoto ja paino. Abstraktit ideat rakentuvat analogisesti konkreettisemmista aistinvaraisista esityksistä. Itsetunto rakentuu itse-esittelyistä. Ajatukset ovat tiedon muotoja, ja kaikki tieto on fyysistä ja suhteellista. Se "tuntuu" joltakin "omistaa" ajatuksen ja "olla" itsenä, koska me olemme sitä tietoa, joka reflektoi rekursiivisesti itseään äärettömässä taantumassa.</t>
+  </si>
+  <si>
+    <t>https://www-psychologytoday-com.translate.goog/us/blog/finding-purpose/201902/what-actually-is-thought-and-how-is-information-physical?_x_tr_sl=en&amp;_x_tr_tl=fi&amp;_x_tr_hl=en&amp;_x_tr_pto=wapp</t>
+  </si>
+  <si>
+    <t>https://www.psychologytoday.com/us/blog/finding-purpose/202201/the-brain-prediction-machine-the-key-consciousness</t>
+  </si>
+  <si>
+    <t>Itsetietoisuuden kehittyminen</t>
+  </si>
+  <si>
+    <t>Morinin mukaan  ensin on alitajunta ja esimerkkeinä alitajunnan tilasta ovat kooma ja uni. Tietoisuuden tilassa (consciousness) olemme tajuissamme ja myös eläinten (joidenkin uusien tutkimusten mukaan kasveillakin saattaa olla jotakin tietoisuutta) voi ajatella olevan tällä tasolla.</t>
+  </si>
+  <si>
+    <t>Seuraava taso on itsetietoisuus. Se on ihmiselle ominainen, evoluutiossa muodostunut, tietoisuuden tila. Joidenkin tutkijoiden mukaan itsetietoisuus on kehittynyt ihmisille n. 60 000 vuotta sitten helpottamaan sosiaalista kanssakäymistä. Se on saattanut olla keskeinen tekijä sille, että ihmispopulaatio lähti räjähdysmäiseen kasvuun noihin aikoihin ja päädyimme lajien huipulle. Itsetietoisina voimme esimerkiksi sanoa, että ”Olen vihainen”.</t>
+  </si>
+  <si>
+    <t>https://arkitecturadellenguaje.files.wordpress.com/2013/02/mirror-neurons-and-the-evolution-of-brain-and-language-advances-in-consciousness-research-by-maksim-i-stamenov.pdf</t>
+  </si>
+  <si>
+    <t>https://www.duodecimlehti.fi/duo96592</t>
+  </si>
+  <si>
+    <t>https://www.duodecimlehti.fi/xmedia/duo/duo15976.pdf</t>
+  </si>
+  <si>
+    <t>https://coggle.it/diagram/YiMNLRpQx0eEmnV-/t/psykodynaaminen-teoria</t>
+  </si>
+  <si>
+    <t>https://www-edge-org.translate.goog/conversation/vilayanur_ramachandran-the-neurology-of-self-awareness?_x_tr_sl=en&amp;_x_tr_tl=fi&amp;_x_tr_hl=en&amp;_x_tr_pto=wapp</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/mirror-effect</t>
+  </si>
+  <si>
+    <t>Sosiaalisen tietoisuuden evoluutiosta (duodecimlehti.fi)</t>
+  </si>
+  <si>
+    <t>https://issp.inner-growth.org/486-2/</t>
+  </si>
+  <si>
+    <t>The Entire History of the Phoenicians (2500 - 300 BC) // Ancient History Documentary - YouTube</t>
+  </si>
+  <si>
+    <t>Jericho - The First City on Earth? // Ancient History Documentary - YouTube</t>
+  </si>
+  <si>
+    <t>8. The Sumerians - Fall of the First Cities - YouTube</t>
+  </si>
+  <si>
+    <t>The Birth of Civilisation - The First Farmers (20000 BC to 8800 BC) - YouTube</t>
+  </si>
+  <si>
+    <t>The Birth of Civilisation - Cult of the Skull (8800 BC to 6500 BC) - YouTube</t>
+  </si>
+  <si>
+    <t>The Birth of Civilisation - Rise of Uruk (6500 BC to 3200 BC) - YouTube</t>
+  </si>
+  <si>
+    <t>Peilisolut ovat hermosoluja eli neuroneita, jotka reagoivat liikkeisiin, ääniin, ilmeisiin ja eleisiin. Niiden tehtävä on jäljitellä sitä, mitä toinen ihminen tai olento tekee ja miltä se tuntuu. Niitä kutsutaankin siksi myös nimellä empatianeuronit.</t>
+  </si>
+  <si>
+    <t>Toisen ihmisen asemaan voidaan asettua oman liikejärjestelmän ja liikeaistin avulla. Katse, asento, kävelytapa ja eleet kertovat mielialasta, aikeista ja sairauksistakin, vaikkei sanaakaan lausuttaisi. Tähän ilmiöön perustuvat mm. mykkäfilmien teho ja tarkka »kliininen silmä». Kun korkealla tasapainoileva nuorallatanssija horjahtaa, katsojakin korjaa omaa asentoaan ja saattaa tuntea vatsanpohjassaan oudon kipristyksen. Samantapainen eläytyminen näkyy koulun joulujuhlassa, kun vanhempien suut aukeilevat samassa tahdissa tai jopa hiukan aikaisemmin kuin lavalla laulavien lasten. Käheää ääntä kuunnellessa rupeaa itsekin selvittämään kurkkuaan.</t>
+  </si>
+  <si>
+    <t>Tietoisuus tietoisuudesta</t>
+  </si>
+  <si>
+    <t>Peilisolut mahdollistavat, että pystymme pohtimaan myös omaa identiteettiämme, emotionaalisia kuvioitamme, vaistomaisia asemiamme (sisäisen käsityksen kohteet). Voimme tuntea empatiaa toista muotoa kohtaan, mutta myös omaa "sisäistä" muotoamme kohtaan. Pystymme pohtimaan itseään, tulemaan itsetietoisiksi ja jopa olemaan tietoisia siitä, että olemme tietoisia.</t>
+  </si>
+  <si>
+    <t>Historian varhaisin tunnettu kirjoitusjärjestelmä oli nuolenpääkirjoitus, jota käytettiin 3400-luvulla eaa. Mesopotamiassa (nyk. Irak, Kuwait ja Syyria). Sen kehittivät muinaiset sumerilaiset, jotka alkoivat painaa terävällä kaislalla merkkejä savitauluihin. </t>
+  </si>
+  <si>
+    <t>Ensimmäiset merkit olivat kuvakirjoitusta, mutta kirjoitus kehittyi edistyneeksi kieleksi, jossa oli jopa tuhat merkkiä. </t>
+  </si>
+  <si>
+    <t>Arkeologisten löytöjen perusteella merkkejä käytettiin muun muassa kirjanpidossa, henkilökohtaisissa kirjeissä ja runojen kirjoituksessa.</t>
+  </si>
+  <si>
+    <t>Nuolenpääkirjoituksessa ei ole nykykäsityksen mukaisia kirjaimia, vaan se koostuu merkeistä, jotka edustavat äännettä tai kokonaista sanaa.</t>
+  </si>
+  <si>
+    <t>Siksi nuolenpääkirjoitus ei ole sidottu vain yhteen puhuttuun kieleen vaan se on helposti muokattavissa eri kieliin. Arkeologisten todisteiden perusteella nuolenpääkirjoitusta on käytetty noin 15 eri kielessä. </t>
+  </si>
+  <si>
+    <t>Useimmat löydetyistä savitauluista on kirjoitettu sumerin ja akkadin kielillä, jotka eivät olleet sukulaiskieliä. Nuolenpääkirjoitusta käytettiin eri kulttuureissa vielä ajanlaskun alun tienoilla. Nuorin tunnettu sillä tehty kirjoitus on tähtitieteellinen teksti vuodelta 75.</t>
+  </si>
+  <si>
+    <t>https://www.scribd.com/home</t>
+  </si>
+  <si>
+    <t>https://www-worldhistory-org.translate.goog/writing/?_x_tr_sl=en&amp;_x_tr_tl=fi&amp;_x_tr_hl=en&amp;_x_tr_pto=wapp</t>
+  </si>
+  <si>
+    <t>https://designshack.net/articles/inspiration/free-premiere-pro-templates/</t>
+  </si>
+  <si>
+    <t>https://www.bighistoryproject.com/chapters/5#intro</t>
+  </si>
+  <si>
+    <t>https://www.thoughtco.com/world-history-timelines-of-humanity-172901</t>
+  </si>
+  <si>
+    <t>https://kottke.org/18/02/a-timeline-map-of-the-200000-year-history-of-human-civilization</t>
+  </si>
+  <si>
+    <t>http://www.biega.com/civilization_history.html</t>
+  </si>
+  <si>
+    <t>https://www.reed.edu/humanities/hum110/chronology-fall.html</t>
+  </si>
+  <si>
+    <t>https://time.graphics/line/47134</t>
+  </si>
+  <si>
+    <t>https://www.timemaps.com/civilizations/world-history/</t>
+  </si>
+  <si>
+    <t>https://www.docsonline.tv/ancient-history-timeline/</t>
+  </si>
+  <si>
+    <t>https://www.worldhistory.org/timeline/civilization/</t>
+  </si>
+  <si>
+    <t>https://historycooperative.org/ancient-civilizations/</t>
+  </si>
+  <si>
+    <t>https://wl2009.wordpress.com/2009/10/04/timeline-of-world-mythology/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sO-3ytDl7Qg</t>
+  </si>
+  <si>
+    <t>https://themediastock.com/category/premiere-pro-freebies/</t>
+  </si>
+  <si>
+    <t>https://coggle.it/diagram/WJhQnzU18gABm1gx/t/social-cognition-theory-of-mind</t>
+  </si>
+  <si>
+    <t>https://historicengland.org.uk/services-skills/education/teaching-activities/timeline-stone-age-to-iron-age/</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/event/Paleolithic-Period</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC6xWLK_eSPw5Kk-zlkC8KwA</t>
+  </si>
+  <si>
+    <t>The Origin of Consciousness in the Breakdown of the Bicameral Mind, Julian Jaynes</t>
+  </si>
+  <si>
+    <t>Tietoisuus perustuu kieleen. Tietoisuus ei ole sama asia kuin kognitio. Yleisin virhe on tietoisuuden ja havainnoinnin sekoittaminen. Havainto on ärsykkeen havaitsemista ja asianmukaista reagointia, ja se voi tapahtua tiedostamattomalla tasolla. Tietoisuus ei ole kaikkea kieltä, mutta se on sen luoma ja sen avulla saavutettu. Ja kun alamme purkaa hienoja verkkoja siitä, kuinka kieli luo tietoisuutta, olemme erittäin vaikealla teoretisoinnin tasolla. Tietoisuudessa ei ole toimintaa, jota ei olisi tapahtunut käyttäytymisessä ensin.</t>
+  </si>
+  <si>
+    <t>On olemassa geneettinen perusta sellaisille hallusinaatioille meissä kaikissa, josta syntyi kaksikamarisen mielen perusta. Se luultavasti kehittyi ihmisen genomiksi myöhään pleistoseenikaudella, joka päättyi 11 500 vuotta sitten. Pleistoseenikaudelle olivat ominaisia toistuvat jääkaudet ja ihmisen nopea evoluutio, sekä aivan lopussa myös kiihtyvä kivikautinen kulttuurikehitys ja maanviljelyksen ensivaiheet.</t>
+  </si>
+  <si>
+    <t>Tietoisuus opittiin vasta kaksikamarisen mielen hajoamisen jälkeen. Tuska siitä, ettei tiennyt mitä tehdä jumalien menetyksen aiheuttamassa kaaoksessa loi sosiaaliset olosuhteet, jotka saattoivat johtaa uuden mentaliteetin keksimiseen vanhan tilalle.</t>
+  </si>
+  <si>
+    <t>Teorian heikko muoto väittää, että tietoisuus perustuu kieleen, mutta se alkoikin jo kielen alussa, ehkä jopa ennen sivilisaatioita, n. 12 000 eaa., suunnilleen samaan aikaan, kun äänien kuulemisen kaksikamarinen mentaliteetti alkoi. </t>
+  </si>
+  <si>
+    <t>Ajankohta eroaa hieman eri puolilla maailmaa, mutta Lähi-idässä kaksikamarinen sivilisaatio sai alkunsa, noin 10000 eaa.????</t>
+  </si>
+  <si>
+    <t>Luulen, että tämä ajoitus näkyy Mesopotamian todisteissa, joissa kaksikamarisen mielen hajoaminen noin vuodesta 1200 eaa. alkaen oli jo melko selvää. Se johtui kaoottisista yhteiskunnallisista hajoamisista, ylikansoituksesta ja luultavasti siitä, että kirjoittaminen korvasi kuuloisen komentotavan. Tämä hajoaminen johti moniin käytäntöihin, joita kutsumme nykyään uskonnollisiksi ja jotka olivat pyrkimyksiä palata jumalten kadonneisiin ääniin, kuten rukous, uskonnollinen palvonta ja ennustamiset, jotka ovat uusia tapoja tehdä päätöksiä oletettavasti palaamalla jumalien ohjeisiin yksinkertaisen analogian perusteella.</t>
+  </si>
+  <si>
+    <t>Kaksikamarisilla yksilöillä oli vakaa identiteetti, nimet, joihin he tai muut saattoivat liittää epiteettejä, mutta tällainen sanallinen identiteetti on paljon matalampi käyttäytymismuoto kuin tietoisesti rakennettu, vaikkakin vaihteleva, hauras ja puolustava minä, joka horjuu meitä vaihtoehtojen läpi. tietoisesti elämisestä.</t>
+  </si>
+  <si>
+    <t>Erityisesti minän suhteen, mutta myös kaikessa mielen petollisessa terminologiassa, meidän on varottava polysemian tai homonyymisen tai multireferenssin hämmennyksen vaaroja, kuten olen kutsunut sitä muualla. Tämä johtuu useimpien henkisten termien historiallisesta kasvusta ja sisäisistä muutoksista; termin viittaus muuttuu yleensä uusien tietoisten viittausten myötä, kunnes termi on todella moniviittaus. "S e l f" on hyvä esimerkki. Alun perin sanaa (tai vastaavaa sanaa millä tahansa kielellä) käytettiin luultavasti yksinkertaisesti identiteetin merkkinä, kuten kaikissa sen monissa yhdisteissä: itsenäinen ammatinharjoittaja, itsekuri jne. Tai kuten sanotaan, että kärpänen pesee itsensä. Mutta fraktaalimaisen tietoisuuden lisääntymisen ja voimistumisen myötä historian aikana, varsinkin 1200-luvulta lähtien, syntyi hyvin erilainen "itsen" viittaus. Se on vastaus kysymykseen "Kuka minä olen? ”Useimmat sosiaalipsykologit hyväksyvät tämän minäkuvauksen.</t>
+  </si>
+  <si>
+    <t>Siten, kuten John Locke jossain sanoo, jos leikkaamme sormen, emme ole vähentäneet itseämme. Keho ei ole itse. Kirjani varhainen kriitikko viittasi hyvin tunnettuun tosiasiaan, että peilejä käytettiin jo antiikissa  ja siksi tällaiset muinaiset kansat olivat tietoisia. Mutta me emme näe itseämme peileissä, vaikka niin sanomme; näemme kasvomme. Kasvot eivät ole itse.</t>
+  </si>
+  <si>
+    <t>Itsetietoisuus tarkoittaa yleensä tietoisuutta omasta persoonastamme ajan mittaan, tunnetta siitä, keitä olemme, toiveitamme ja pelkojamme, kun haaveilemme itsestämme suhteessa muihin. Emme näe tietoista minäämme peileissä, vaikka siitä kuvasta voikin tulla monessa tapauksessa minän tunnus. Tässä kokeessa olleet simpanssit ja kaksivuotias lapsi oppivat pisteestä pisteeseen -suhteen peilikuvan ja kehon välillä, niin upea kuin se onkin. Peilistä havaitun pisteen hankaaminen ei olennaisesti eroa vartalosta havaitun pisteen hieromisesta ilman peiliä. Eläimen ei näytetä kuvittelevan itseään missään muualla tai ajattelevan elämäänsä ajan myötä tai tutkivan itseään missään mielessä – kaikki merkit tietoisesta itsestään.</t>
+  </si>
+  <si>
+    <t>Tämä vähemmän kiinnostava, primitiivisempi tulkinta tehtiin vieläkin selvemmäksi Skinnerin laboratoriossa tehdyllä nerokkaalla kokeella. Pohjimmiltaan samaa paradigmaa noudatettiin kyyhkysten kanssa, paitsi että se vaati sarjan erityisiä koulutusta peilin kanssa, kun taas simpanssi tai lapsi. aiemmissa kokeissa oli tietysti itse koulutettu. Mutta noin viidentoista tunnin harjoittelun jälkeen, jolloin tilanteita valvottiin huolellisesti, havaittiin, että kyyhkynen pystyi myös paikantamaan peilin avulla kehossaan sinisen pisteen, jota se ei voinut nähdä suoraan, vaikka sitä ei ollut koskaan nimenomaisesti koulutettu tekemään. niin. En usko, että kyyhkysellä, koska sitä voidaan niin kouluttaa, on minäkäsitys.</t>
+  </si>
+  <si>
+    <t>Affektiivista tunteeseen</t>
+  </si>
+  <si>
+    <t>Uusi spatialisoitu aika, jossa tapahtumia ja kokemuksia voitiin paikantaa, muistaa ja ennakoida, ei johda vain tietoiseen minän rakentamiseen, vaan myös tunteidemme dramaattiseen muutokseen. Jaamme muiden nisäkkäiden kanssa epäjärjestyneen vaikutteiden valikoiman, joiden hermosubstraatti on kehittynyt kauan sitten luonnollisen valinnan avulla limbiseen järjestelmään syvällä aivoissa. Haluan tässä mainita kolme: pelko, häpeä ja pariutuminen. Afektilla psykologia tarkoittaa biologisesti järjestäytyneen käyttäytymisen määrittämistä, jolla on erityinen anatominen ilmaisu ja erityinen biokemia, joka häviää ajan myötä. Mutta tietoisuuden myötä kaikki tämä muuttuu.</t>
+  </si>
+  <si>
+    <t>Kutsun tätä tietoisuutta menneisyydestä tai tulevasta vaikutuksesta tunteeksi, kuten kuvailemme sitä. Ja se, mitä ehdotan tässä, on kaksitasoinen teoria tunteista nykyihmiselle, joka erotetaan kaksikamarisesta ihmisestä ja muista eläimistä. On olemassa nisäkäselämän perusvaikutukset ja sitten tunteemme, jotka ovat tietoisuus sellaisista vaikutuksista, jotka sijaitsevat sisällä. identiteetti elämässä, menneisyydessä tai tulevaisuudessa, ja joilla ei ole biologisesti kehittyneitä pysäytysmekanismeja.</t>
+  </si>
+  <si>
+    <t>Pelosta ahdistukseen</t>
+  </si>
+  <si>
+    <t>Pelossa on luokka ärsykkeitä, yleensä äkillisiä ja uhkaavia, jotka estävät eläimen tai henkilön jatkuvasta käyttäytymisestä, provosoivat pakenemisen ja useimmissa sosiaalisissa nisäkkäissä tuottavat erityisiä kehon ilmeitä ja sisäisesti nousevat katekoliamiinitasoa eläimessä. verta, kuten adrenaliinia ja noradrenaliinia. Tämä on hyvin tunnettu hätätoimi, joka häviää muutaman minuutin kuluttua, jos pelottava esine tai tilanne poistetaan.</t>
+  </si>
+  <si>
+    <t>Mutta nykyihmisen tietoisuuden myötä, kun muistelemme aiempia pelkoja tai kuvittelemme tulevia, pelko sekoittuu ahdistuksen tunteeseen. Jos haluamme saada tässä kaikuja James-Langen tunneteoriasta, kutsuisimme ahdistusta pelkomme tiedoksi. Näemme karhun, karkaamme peloissamme ja olemme ahdistuneita. Mutta ahdistus todellisen pelon harjoituksena saa osaksi hätätoimia ainakin heikosti. Ihmisen uusi tietoisen kuvan kyky voi pitää pelottavan tilanteen analogisen tietoisuudessa jatkuvasti reagoimalla siihen. Ja kuinka tämä reaktio saadaan pois päältä sen biokemiallisin perustein, oli ja on mielestäni edelleenkin tietoisten ihmisten ongelma, erityisesti siitä johtuva katekoliamiinipitoisuuden nousu ja kaikki sen pitkäaikaiset vaikutukset. Pyydän teitä täällä pohtimaan, millaista oli yksilölle ensimmäisellä vuosituhannella eKr. saada näitä ahdistuksia, joilla ei ollut omaa sisäänrakennettua lopetusmekanismiaan ja ennen kuin ihmiset oppivat tietoisia ajatusmekanismeja sen tekemiseen.</t>
+  </si>
+  <si>
+    <t>Tämän osoittaa Herodotuksen kuvaama kuuluisa tapaus ensimmäisestä Ateenassa suoritetusta tragediosta. Se esitettiin vain kerran. Näytelmä oli Phrynicuksen The Fall of Miletus, joka kuvasi tuon Joonianmeren kaupungin ryöstämistä persialaisten toimesta vuonna 494 eaa., edellisenä vuonna tapahtuneen katastrofin. Yleisön reaktio oli niin äärimmäinen, että koko Ateena ei voinut toimia useaan päivään. Phrynicus karkotettiin, eikä hänestä enää koskaan kuultu, ja hänen tragediansa paloi.</t>
+  </si>
+  <si>
+    <t>Häpeästä syyllisyyteen</t>
+  </si>
+  <si>
+    <t>Toinen biologinen vaikutus, jota haluan tässä tarkastella, on häpeä. Koska se on sosiaalisesti herätetty vaikutelma, sitä on harvoin tutkittu kokeellisesti joko eläimillä tai ihmisillä. Se on monimutkainen afekti, jonka aiheuttamat ärsykkeet liittyvät usein hierarkkisten suhteiden ylläpitämiseen erittäin sosiaalisissa eläimissä, ja se on alistuva vastaus hierarkkisen ryhmän hylkäämiseen. Vaikka tällainen biologinen häpeä on ilmeinen kontrollimekanismina lihansyöjäryhmissä, se on paljon ilmeisempi kädellisten keskuudessa ja erityisesti ihmisissä. Näytämme häpeävän puhua häpeästä, ja todellakin aikuisina häpeä on muovannut meidät menneisyydessä niin kapeasti sosiaalisesti hyväksyttävään käyttäytymiseen, että se on harvoin mahdollista.</t>
+  </si>
+  <si>
+    <t>Mutta kun muistelemme lapsuuttamme, lävistävää, sykkivää traumaa vertaisryhmiemme hylkäämisestä, pelkoa sopimattomasti siirtymisestä yksityisestä julkisuuteen, tuskaa, kun teemme niin, erityisesti suhteessa seksuaalisuuteen. ja eritystoiminnot, muiden tai itsemme WC-onnettomuudet, mutta myös lievemmässä muodossa, haluttaessa pukeutua samalla tavalla kuin muut lapset, saada niin monta ystävänpäivää ja olla ylennetty muiden kanssa tai saada vanhempia. vauraudeltaan, terveydeltään tai lupaukseltaan toisten vanhemmille tasavertainen tai olla toisten lyömättä tai kiusaamatta, joskus jopa keskinkertainen koulutehtävissä, kun hän on todella ylivoimainen - mitä tahansa, jotta voidaan olla varma siitä, että hän on tiukasti uppoutunut syvälle omaan kohortti – nämä ovat joitain voimakkaimmista ja syvimmistä vaikutuksista kehitykseemme. Meidän tulee muistaa tässä, että vanhetessamme kohorttimme on yhä vähemmän välitöntä vertaisryhmäämme ja yhä enemmän perhetraditiota, rotuamme, uskontoamme, ammattiliittoamme tai ammattiamme jne.</t>
+  </si>
+  <si>
+    <t>Häpeän tai nöyryytyksen fysiologiseen ilmaisuun kuuluu tietysti punastuminen, silmien ja pään pudottaminen sekä käyttäytymiseen yksinkertaisesti ryhmältä piiloutuminen. Valitettavasti sen biokemiallisesta tai neurologisesta perustasta ei tiedetä mitään.</t>
+  </si>
+  <si>
+    <t>Jos haluat tuntea häpeää sen puhtaassa muodossaan, tätä sinulta odotetun ulkopuolelle astumista, erotu vain vilkkaalla kadulla ja huuda aika minuuteissa ja sekunneissa jokaisen ohikulkijan pään yli ja tee se. viisi minuuttia – tai kunnes sinut viedään pois. Tämä on häpeää, mutta ei syyllisyyttä, koska et ole tehnyt mitään, mitä yhteiskuntasi on opettanut sinua kutsumaan väärin.</t>
+  </si>
+  <si>
+    <t>Ja mieti nyt, mitä tietoinen muisto ja tulevaisuuden mielikuva tuovat tähän vaikutuksen. Ja erityisesti harkitse tätä eettisen oikean ja väärän miljöössä, joka kehittyi käyttäytymisen merkkinä sen jälkeen, kun kaksikamarinen mieli hajosi sen varmuudella jumalien ohjeista. Virheitä tai toisella sanalla synnit tai oikeastaan ​​kaikki mikä karkottaisi meidät yhteiskunnasta, jos sen tiedettäisiin tai näyttäisi karkottavan meidät yhteiskunnasta, voidaan muistella menneisyydestä ja olla huolissaan tulevaisuudesta. Ja tätä me kutsumme syyllisyydeksi. Ei kukaan ennen vuotta 1ooo eKr. koskaan tuntenut syyllisyyttä, vaikka häpeä oli tapa, jolla ryhmiä ja yhteiskuntia pidettiin yhdessä.</t>
+  </si>
+  <si>
+    <t>Osoittaakseni todisteita siitä, että syyllisyys häpeän sijaan on uusi tunne tällä hetkellä, mainitsen yhden todisteen, ja sellaisen, joka on hyvin tiedossa.24 Tämä on tarina Oidipuksesta. Siihen viitataan Iliaksen kahdella rivillä ja Odysseian kahdella rivillä, joita voimme mielestäni pitää tositarinana, koska se tuli kaksikamarinen ajoilta. Tarina näyttää olevan miehestä, joka tappoi isänsä ja meni sitten tahattomasti naimisiin äitinsä kanssa ja tuli Theban kuninkaaksi. Hän sai useita lapsia-sisaruksia äidiltään ja sai sitten tietää, mitä oli tehnyt, ja tuntee häpeää, koska insesti oli aina ollut olemassa. ollut tabu, mutta ilmeisesti toipumassa tuosta häpeästä, elää sen jälkeen onnellista elämää vaimonsa-äitinsä kanssa ja kuolla kuninkaallisin kunnianosoin joskus myöhemmin. Tämä kirjoitettiin muistiin noin 800 eaa., mutta tarina on peräisin useita vuosisatoja ennen sitä.</t>
+  </si>
+  <si>
+    <t>Ja sitten, vain neljäsataa vuotta myöhemmin, meillä on tästä aiheesta suuri Sofokleen trilogia, näytelmä tuntemattomasta syyllisyydestä, syyllisyydestä niin äärimmäisestä, että koko kaupunki on nälänhädässä sen takia, niin kouristelevaa, että syyllinen saa selville. hänen syyllisyytensä ei ansaitse katsoa maailmaa uudelleen ja pistää hänen silmänsä pimeyteen äiti-vaimonsa rinnoista puristetuilla rintakoruilla, ja hänen sisarensa-tyttärensä johdattavat hänet mystiseen kuolemaan Colonuksessa.</t>
+  </si>
+  <si>
+    <t>Ja jälleen kerran, ei ole olemassa biologista mekanismia syyllisyyden poistamiseksi. Syyllisyydestä eroon pääseminen on ongelma, joka on nyt kehitetty lukuisia opittuja uudelleenhyväksynnän sosiaalisia rituaaleja: heprealaisten syntipukkiseremoniat (sanomalla pois lähettäminen tarkoittaa nyt "anteeksiantamista"), samanlaisia ​​pharmakosia kreikkalaisten keskuudessa ( jälleen sana aphesis, joka tarkoittaa pharmakosien lähettämistä, tulee kreikaksi ja tarkoittaa "anteeksiantamista"), monenlaisia ​​"puhdistusseremoniat", kaste, taurobolium, haj, tunnustus, tashlik, messu ja tietysti kristillinen risti, joka ottaa pois maailman synnit (huomaa metaforat ja analogiat tässä kaikessa). Jopa</t>
+  </si>
+  <si>
+    <t>Jumalan luonteen muuttaminen anteeksiantavaksi isäksi.</t>
+  </si>
+  <si>
+    <t>Ja haluaisin myös sinun huomioivan tässä, että vaikka vaikutteet ovat yleensä erillisiä ja herätetään hyvin tietyntyyppisissä tilanteissa tietyntyyppisiä reaktioita varten, tietoisuuden tunteet eivät ole diskreettejä, ne voivat sulautua ja herättää toisensa. Pve sanoi juuri, että syyllisyydessä voimme olla huolissaan tulevista häpeällisistä kokemuksista, mikä todellakin on ahdistusta, ja siten meillä on kaksi tunnetta, ahdistus ja syyllisyys, yhdistyvät vieläkin voimakkaammaksi tunteeksi.</t>
+  </si>
+  <si>
+    <t>Parittelusta "seksiksi"</t>
+  </si>
+  <si>
+    <t>Kolmas esimerkki, jota tarkastelisin tässä, on pariutumisen vaikutus. Se on joissain suhteissa samanlainen kuin muut vaikutteet, mutta toisaalta varsin erilainen. Eläintutkimukset osoittavat, että päinvastoin kuin yleinen mieli ajattelee, pariutuminen ei ole välttämätön nälän tai janon kaltainen halu (vaikka se näyttää siltä tietoisuuden vuoksi), vaan monimutkainen käyttäytymismalli, joka odottaa saavansa laukaista erityisiä ärsykkeitä. Useimpien eläinten parittelu rajoittuu siten tiettyihin sopiviin vuoden- tai vuorokaudenaikoihin sekä tiettyihin sopiviin ärsykkeisiin, kuten toisen käyttäytymiseen, tai feromoneihin, valo-olosuhteisiin, yksityisyyteen, turvallisuuteen ja moniin muihin muuttujiin. Näihin kuuluu valtava valikoima äärimmäisen monimutkaisia ​​seurustelumenettelyjä, jotka melko hienovaraisten evoluutioetujen vuoksi näyttävät monissa eläimissä olevan melkein suunniteltu estämään pariutuminen sen sijaan, että ne edistäisivät sitä, kuten voisi odottaa liian yksinkertaistetusta käsityksestä luonnonvalinnan toiminnasta. Ihmisapinoiden joukossa, toisin kuin muissa kädellisissä, parittelu on niin harvinaista luonnollisessa elinympäristössä, että se on hämmentänyt varhaiset etologit näiden ihmisten kaltaisimpien lajien lisääntymisen suhteen. Niin ehkä myös kaksikamarinen miehen kanssa.</t>
+  </si>
+  <si>
+    <t>Mutta kun ihmiset voivat olla tietoisia pariutumiskäyttäytymisestään, muistella sitä menneisyydessä ja kuvitella sitä tulevaisuudessa, olemme hyvin erilaisessa maailmassa, todellakin sellaisessa, joka näyttää meille tutummalta. Yritä kuvitella, mitä "seksuaalielämäsi" olisi, jos et voisi fantasoida seksistä.</t>
+  </si>
+  <si>
+    <t>Mikä on todiste tälle muutokselle? Luulen, että muinaisen maailman tutkijat olisivat samaa mieltä siitä, että seinämaalaukset ja veistokset, joita kutsun kaksikamariseksi maailmaksi, toisin sanoen ennen vuotta 1ooo eKr., ovat puhtaita; seksuaalisia viittauksia sisältäviä kuvauksia ei juurikaan ole, vaikka poikkeuksiakin löytyy. Hyviä esimerkkejä ovat nyt Ateenan kansallismuseon toisessa kerroksessa olevat kaksikamarisen Theran vaatimattomat, viattomat seinämaalaukset.</t>
+  </si>
+  <si>
+    <t>Mutta tietoisuuden tullessa, erityisesti Kreikassa, jossa todisteet ovat selkeimpiä, näiden varhaisten kreikkalaisten yhteiskuntien jäännökset ovat kaikkea muuta kuin puhtaita. Seitsemänneltä vuosisadalta eaa. maljakkomaalaukset, joissa kuvataan ithyfallisia satyyrejä, uusia, puolijumalisia olentoja, seksi näyttää todellakin tärkeältä huolenaiheelta. Ja tarkoitan sanaa huoli, sillä se ei aluksi vaikuta pelkkää pornografista jännitystä. Esimerkiksi yhdellä Egeanmeren saarella, Deloksella, on valtavien fallisten erektioiden temppeli.</t>
+  </si>
+  <si>
+    <t>Rajakivet kaikkialla Attikassa olivat ns. hermejä: neliömäisiä kivipylväitä, noin neljä jalkaa korkeita, joiden päällä oli tavallisesti Hermeksen veistoksellinen pää ja sopivalla korkeudella tolpan ainoa veistoksellinen piirre, peniksen erektio. . Paitsi että nämä hermit eivät nauraneet, kuten ne varmasti olisivat nykypäivän lapsille, niitä pidettiin vakavina ja tärkeinä, sillä Platonin symposiumissa "hermien silpominen" humalaisen kenraali Alkibiadesin toimesta, jossa hän Ilmeisesti tyrmäsi nämä ulkonemat miekalla Ateenan kaupungin ympärillä, sitä pidetään pyhäinrikoksena.</t>
+  </si>
+  <si>
+    <t>Jos tämä olisi kaikki, voisimme olla samaa mieltä vanhempien viktoriaanisten tulkintojen kanssa siitä, että tämä fallismi oli vain objektiivinen hedelmällisyysriitti. Mutta todisteet todellisesta seksuaalisesta käyttäytymisestä tietoisen fantasian tulon jälkeen puhuvat toista. Bordelleja, jotka Solonin oletettavasti perusti, oli kaikkialla ja kaikenlaisia ​​400-luvulla eaa. Maljakkomaalaukset kuvaavat kaikkea mahdollista seksuaalista käyttäytymistä masturboinnista eläimellisyyteen ja ihmiskolmioon, sekä homoseksuaalisuutta kaikissa mahdollisissa muodoissa.</t>
+  </si>
+  <si>
+    <t>Jälkimmäinen todellakin alkoi vasta tähän aikaan, mikä johtuu, oletan, että osaksi ihmisen uusi fantasiokyky. Homoseksuaalisuus puuttuu kokonaan Homeroksen runoista. Tämä on vastoin sitä, mitä jotkin viimeaikaiset freudilaiset tulkinnat ja jopa klassiset viittaukset tästä ajanjaksosta (erityisesti sen jälkeen, kun Platon kielsi sen Laeissa physiksen tai luonnon vastaisena), jotka etsivät lupaa homoseksuaalisuuteen Homeruksesta, heijastavat vahvaan siteeseen. Akilleuksen ja Patrokloksen välillä.</t>
+  </si>
+  <si>
+    <t>Sivilisaation alkuperä</t>
+  </si>
+  <si>
+    <t>Kaksikamarinen mieli on sosiaalisen kontrollin muoto, ja se on se sosiaalisen kontrollin muoto, joka mahdollisti ihmiskunnan siirtymisen pienistä metsästäjä-keräilijäryhmistä suuriin maatalousyhteisöihin. Kaksikamarinen mieli ja sen hallitsevat jumalat kehittyivät kielen kehityksen viimeisenä vaiheena. Ja tässä kehityksessä on sivilisaation alkuperä.</t>
+  </si>
+  <si>
+    <t>Aloitetaan tarkastelemalla, mitä tarkoitamme sosiaalisella kontrollilla.</t>
+  </si>
+  <si>
+    <t>RYHMIEN KEHITYS</t>
+  </si>
+  <si>
+    <t>Nisäkkäät yleensä osoittavat monenlaisia ​​sosiaalisia ryhmittymiä aina tiettyjen petoeläinten yksinäisyydestä muiden hyvin läheiseen sosiaaliseen yhteenkuuluvuuteen. Jälkimmäiset eläimet ovat saalistavampia, ja sosiaalinen ryhmä on rakenne itsessään geneettinen sopeutuminen petoeläimiltä suojaamiseksi. </t>
+  </si>
+  <si>
+    <t>SIVILISAATION ALKUPERÄ</t>
+  </si>
+  <si>
+    <t>Tiheissä suojametsissä sosiaalinen ryhmä voi olla jopa kuusi, kuten gibboneissa, kun taas alttiimmilla maastoilla ryhmä voi olla jopa kahdeksankymmentä, kuten Kappaviaanilla. Poikkeuksellisissa ekosysteemeissä ryhmäkoko voi olla jopa suurempi.</t>
+  </si>
+  <si>
+    <t>Ryhmä sitten kehittyy. Kun hallitseva yksilö huutaa tai juoksee, muut ryhmän jäsenet pakenevat etsimättä vaaran lähdettä. Yhden yksilön kokemus ja hänen dominanssinsa on siis koko ryhmän etu. Yksilöt eivät yleensä vastaa edes fysiologisiin perustarpeisiin muutoin kuin koko ryhmän toimintamallissa. Esimerkiksi janoinen paviaani ei poistu ryhmästä ja lähtee etsimään vettä; koko ryhmä liikkuu tai ei kukaan. Jano tyydytetään vain ryhmän kuviollisen toiminnan puitteissa. Ja niin on muidenkin tarpeiden ja tilanteiden kanssa.</t>
+  </si>
+  <si>
+    <t>Meille tässä on tärkeää, että tämä sosiaalinen rakenne riippuu yksilöiden välisestä kommunikaatiosta. Kädelliset ovat siksi kehittäneet valtavan valikoiman monimutkaisia ​​signaaleja: kosketusviestintä, joka ulottuu kiinnityksestä ja hoidosta erilaisiin syleilyihin, nykimiseen ja sormimiseen; äänet vaihtelevat sekalaisesta murinasta, haukkumisesta, kirkumisesta ja jyrkistä, jotka kaikki osuvat toisiinsa; ei-ääniset signaalit, kuten hampaiden narskuttelu tai oksien hakkaaminen; visuaaliset signaalit erilaisissa ilmeissä, uhkaava, suora silmästä silmään katse, paviaanien silmäluomien lepatus, jossa kulmakarvat nostetaan ja silmäluomet lasketaan paljastamaan niiden vaalea väri tummempaa taustaa vasten kasvojen ja haukottelun kanssa, joka paljastaa hampaat aggressiivisesti; erilaisia ​​asennon signaaleja, kuten syöksyä, pään nykimistä, teeskentelyä käsillä ja kaikkia näitä eri tähdistöissä.</t>
+  </si>
+  <si>
+    <t>Tämä valtava ylimääräinen signaloinnin monimutkaisuus on pohjimmiltaan omistettu ryhmän vaatimuksille, sen järjestäytymiselle dominanssi- ja alisteisuusmalleihin, rauhan ylläpitämiseen, uudelleentuotantoon ja nuorten hoitoon. Potentiaalista ryhmävaaraa lukuun ottamatta kädellisten signaalit koskevat harvoin ryhmän ulkopuolisia tapahtumia, kuten ruoan tai veden läsnäoloa. Ne kuuluvat täysin ryhmän sisäisiin asioihin, eivätkä ne ole kehittyneet antamaan ympäristötietoa ihmisten kielten tavoin.</t>
+  </si>
+  <si>
+    <t>Tietyssä ekologiassa useimmille lajeille tämä viestintäjärjestelmä rajoittaa ryhmän kokoa. Paviaanit pystyvät muodostamaan jopa kahdeksankymmentä tai sitä suurempia ryhmiä, koska niillä on tiukka maantieteellinen rakenne liikkuessaan avoimilla tasangoilla, ja hallitseva hierarkia säilyy ryhmän jokaisen ympyrän sisällä. Mutta yleensä tavallinen kädellisten ryhmä ei ylitä kolmeakymmentä tai neljäkymmentä, rajan määrää hallitseva hierarkian toimiminen välttämätön viestintä.</t>
+  </si>
+  <si>
+    <t>Esimerkiksi gorilloissa hallitseva uros, yleensä suurin hopeaselkäinen uros, yhdessä kaikkien naaraiden ja nuorten kanssa, miehittää kunkin noin kahdenkymmenen ryhmän keskiytimen, ja muut urokset ovat yleensä perifeerisiä. Ryhmän halkaisija kulloinkin harvoin ylittää 200 jalkaa, koska jokainen eläin pysyy tarkkaavaisena toisten liikkeissä tiheässä metsäympäristössä. Ryhmä liikkuu, kun hallitseva uros seisoo vähemmän liikkeessä jalat levittäytyen ja kasvot tiettyyn suuntaan. Muut ryhmän jäsenet kerääntyvät hänen ympärilleen, ja joukko lähtee rauhalliselle päivämatkalleen noin kolmanneksen mailin pituiselle matkalle. Tärkeää tässä on se, että monimutkaiset viestintäkanavat ovat avoinna dominanssihierarkian huipulle ja kaikkien muiden välillä.</t>
+  </si>
+  <si>
+    <t>Ei ole mitään syytä ajatella, että varhainen ihminen Homo-suvun alusta kaksi miljoonaa vuotta sitten olisi elänyt toisin. Sellaiset saadut arkeologiset todisteet osoittavat, että ryhmän koko on noin kolmekymmentä. Tätä määrää rajoitti mielestäni sosiaalisen kontrollin ongelma ja yksilöiden välisten viestintäkanavien avoimuus, ja se on tämän ryhmän koon rajoituksen ongelma, jonka jumalat ovat saattaneet tulla evoluutiohistoriaan ratkaisemaan.</t>
+  </si>
+  <si>
+    <t>Mutta ensin meidän on pidettävä kielen kehitystä välttämättömänä edellytyksenä jumalien olemassaololle.</t>
+  </si>
+  <si>
+    <t>KIELEN KEHITYS Milloin kieli kehittyi?</t>
+  </si>
+  <si>
+    <t>Yleisesti ajatellaan, että kieli on niin olennainen osa ihmisen perusrakennetta, että sen täytyy jollain tavalla edetä ihmisen heimo-sukupolven kautta Homo-suvun alkuperään, eli lähes kahden miljoonan vuoden ajan. Useimmat tuttavani nykykielentutkijat haluaisivat vakuuttaa minut, että tämä on totta. Mutta tämän näkemyksen kanssa haluan olla täysin ja painokkaasti eri mieltä. Jos varhaisella ihmisellä oli näiden kahden miljoonan vuoden aikana edes ikiaikainen puhe, miksi yksinkertaisesta kulttuurista tai tekniikasta on niin vähän todisteita? Sillä on olemassa arvokasta vähän arkeologisesti 40 000 eKr asti, muita kuin karkeimpia kivityökaluja.</t>
+  </si>
+  <si>
+    <t>Joskus reaktio varhaisen ihmisen puheen kieltämiseen on, kuinka ihminen sitten toimi tai kommunikoi? Vastaus on hyvin yksinkertainen: aivan kuten kaikki muut kädelliset, runsaasti visuaalisia ja äänisignaaleja, jotka olivat hyvin kaukana nykyisestä syntaktisesta kielestä. Ja kun jopa kannan tätä sanattomuutta pleistoseenin ajan, jolloin ihminen kehitti monenlaisia ​​primitiivisiä kivileikkureita ja käsikirveitä, taas kielitieteilijäystäväni valittavat ylimielistä tietämättömyyttäni ja vannovat, että näinkin alkeellisten taitojen välittämiseksi yhdeltä sukupolvelta toiselle, täytyi olla kieltä. Tämä taide välitettiin yksinomaan jäljitelmällä, täsmälleen samalla tavalla kuin simpanssit välittävät tempun työntämällä olkea muurahaismäkiin saadakseen muurahaisia.</t>
+  </si>
+  <si>
+    <t>Koska kielen on saatava aikaan dramaattisia muutoksia ihmisen huomiossa asioihin ja henkilöihin, koska se mahdollistaa valtavan tiedon siirron, sen on täytynyt kehittyä ajanjakson aikana, joka osoittaa arkeologisesti tällaisten muutosten tapahtuneen. Tällainen on myöhäinen pleistoseeni, noin 70 000 eaa. vuoteen 8000 eaa. Tälle ajanjaksolle oli ilmastollisesti ominaista suuret lämpötilavaihtelut, jotka vastaavat jääkauden olosuhteiden etenemistä ja uusiutumista, ja biologisesti näiden säämuutosten aiheuttamat valtavat eläinten ja ihmisten muuttoliikkeet. Hominidipopulaatio räjähti Afrikan ydinalueelta Euraasian subarktiselle alueelle ja sitten Amerikkaan ja Australiaan. Välimeren alueen väestö saavutti uuden huipun ja otti johtoaseman kulttuurisissa innovaatioissa siirtäen ihmisen kulttuurisen ja biologisen painopisteen tropiikilta keskileveysasteille. Hänen tulipalot, luolat ja turkikset loivat ihmiselle eräänlaisen kuljetettavan mikroilmaston, joka mahdollisti näiden muuttojen tapahtumisen.</t>
+  </si>
+  <si>
+    <t>Olemme tottuneet kutsumaan näitä ihmisiä myöhään neandertalilaisiksi. Aikoinaan niiden ajateltiin olevan erillinen ihmislaji, jonka Cro-Magnonin mies syrjäytti noin 35 000 eaa. Mutta uudempi näkemys on, että he olivat osa yleistä inhimillistä linjaa, jolla oli suuri vaihtelu, joka mahdollisti kasvavan evoluution tahdin, kun ihminen, joka otti keinotekoisen ilmastonsa mukanaan, levisi näihin uusiin ekologisiin markkinarakoihin.</t>
+  </si>
+  <si>
+    <t>Kutsut, muokkaukset ja komennot</t>
+  </si>
+  <si>
+    <t>Ensimmäinen vaihe ja kielen ehdoton edellytys on tahallisten kutsujen kehittyminen tahallisista kutsuista tai sellaisista, jotka yleensä toistuvat, ellei vastaanottajan käyttäytymisen muutos sammuta sitä. Aikaisemmin kädellisten evoluution aikana vain asento- tai visuaaliset signaalit, kuten uhka-asennot, olivat tahallisia. Niiden kehittyminen kuulosignaaleiksi teki välttämättömäksi ihmisen siirtyessä pohjoisiin ilmastoihin, joissa valoa oli vähemmän sekä ympäristössä että pimeissä luolissa, joihin ihminen asui ja joissa visuaalisia signaaleja ei voitu nähdä yhtä helposti kuin kirkkailla Afrikan savanneilla. Tämä kehitys on saattanut alkaa jo kolmannella jääkausikaudella tai mahdollisesti jo ennenkin. Mutta vasta kun lähestymme neljännen jääkauden lisääntyvää kylmyyttä ja pimeyttä pohjoisissa ilmastoissa, tällaisten tahallisten äänisignaalien läsnäolo antoi selvän valikoivan edun niille, joilla ne omistivat.</t>
+  </si>
+  <si>
+    <t>Teen tässä yhteenvedon kielen evoluutioteoriasta, jonka olen kehittänyt täydellisemmin ja varovaisemmin muualla. Sitä ei ole tarkoitettu niinkään lopulliseksi lausumaksi siitä, mitä evoluutiossa tapahtui, vaan karkeaksi työhypoteesiksi sen lähestymiseksi. Lisäksi kuvaamieni kielen kehitysvaiheiden ei ole tarkoitus olla välttämättä erillisiä. Ne eivät myöskään ole aina samassa järjestyksessä eri paikkakunnilla. Tämän näkemyksen keskeinen väite, toistan, on, että jokainen uusi sanojen vaihe loi kirjaimellisesti uusia havaintoja ja huomioita, ja tällaiset uudet havainnot ja huomiot johtivat merkittäviin kulttuurisiin muutoksiin, jotka näkyvät arkeologisissa kirjoissa.</t>
+  </si>
+  <si>
+    <t>Puheen ensimmäiset todelliset elementit olivat intensiteetin perusteella erottuvien tahallisten kutsujen viimeiset äänet. Esimerkiksi vaarakutsu välittömästi olemassa olevasta vaarasta huudattaisiin voimakkaammin ja muuttaisi loppufoneemia. Välittömässä läheisyydessä oleva tiikeri saattaa aiheuttaa 'wahee!', kun taas kaukainen tiikeri voi aiheuttaa vähemmän voimakasta itkua ja siten kehittää erilaisen lopputuloksen, kuten 'wahoo'. Juuri näistä päätteistä tulee siis ensimmäiset muuntajat, jotka tarkoittavat 'lähellä' ja 'kaukana'. Ja seuraava askel oli, kun nämä päätteet, "hee" ja "hoo", voitiin erottaa tietystä kutsusta, joka loi ne ja liittää johonkin toiseen puheluun samalla merkinnällä.</t>
+  </si>
+  <si>
+    <t>Ratkaisevaa tässä on se, että vokaalimääritteiden eriyttämisen oli tapahduttava ennen niiden muuntamien substantiivien keksimistä, eikä päinvastoin. Ja mikä parasta, tämän puhevaiheen täytyi pysyä pitkään, kunnes tällaiset modifikaattorit vakiintuivat. Tämä hidas kehitys oli tarpeen myös siksi, että puhelujärjestelmän perusohjelmisto säilyi ehjänä tarkoituksenmukaisten toimintojensa suorittamiseksi. Tämä modifioijien ikä kesti ehkä jopa 40 000 eaa., josta löytyy arkeologisesti muokattuja käsikirveitä ja kärkiä.</t>
+  </si>
+  <si>
+    <t>Seuraava vaihe saattoi olla käskyjen aikakautta, jolloin modifioijat, erotettuina muokkaamistaan ​​kutsuista, voivat nyt muokata ihmisten toimintaa itse. Varsinkin kun miehet luottivat yhä enemmän metsästykseen viileässä ilmastossa, selektiivinen paine sellaiseen äänikomennoilla hallittua metsästäjäryhmää kohtaan on täytynyt olla valtava. Ja voimme kuvitella, että 'terävämpää' tarkoittavan muuntimen keksiminen ohjatuksi käskynä voisi edistää merkittävästi työkalujen valmistusta piikivistä ja luusta, mikä johtaisi uudentyyppisten työkalujen räjähdykseen 40 000 - 25 000 eaa.</t>
+  </si>
+  <si>
+    <t>Substantiivit</t>
+  </si>
+  <si>
+    <t>Kun heimolla on repertuaari modifioijia ja komentoja, vanhan primitiivisen kutsujärjestelmän eheyden säilyttämisen tarve voidaan lievittää ensimmäistä kertaa, jotta voidaan osoittaa modifioijien tai komentojen referentit. Jos 'wahee!' merkitsi kerran välitöntä vaaraa, intensiteetin erottelun ollessa suurempi, meillä saattaa olla 'wak ee!' lähestyvälle tiikerille tai "wab ee!" lähestyvälle karhulle. Nämä olisivat ensimmäiset lauseet, joissa on substantiivisubjekti ja predikatiivinen muuntaja, ja ne ovat saattaneet esiintyä jossain 25 000 - 15 000 eaa.</t>
+  </si>
+  <si>
+    <t>Nämä eivät ole mielivaltaisia ​​spekulaatioita. Peräytys muuntajista komentoihin ja vasta kun ne muuttuvat vakaaksi substantiivien välillä ei ole mielivaltaista peräkkäisyyttä. Aivan kuten modifioijien ikä osuu yhteen paljon parempien työkalujen valmistuksen kanssa, niin eläinten substantiivien ikä osuu samaan aikaan, kun eläimiä alettiin piirtää luolien seinille tai sarvityökaluille.</t>
+  </si>
+  <si>
+    <t>Seuraava vaihe on asiasubstantiivien kehitys, oikeastaan ​​siirto edellisestä. Ja aivan kuten elämän substantiivit alkoivat piirtää eläinpiirroksia, niin asioiden substantiivit synnyttävät uusia asioita. Ehdotan, että tämä ajanjakso vastaa keramiikan, riipuksien, koristeiden ja piikkiharppuunoiden ja keihäänkärkien keksintöä, kaksi viimeistä erittäin tärkeää ihmislajin levittämisessä vaikeampiin ilmastoihin. Fossiilisten todisteiden perusteella tiedämme tosiasiallisesti, että aivot, erityisesti etummainen lohko keskussuluksen edessä, kasvoivat nopeudella, joka edelleen hämmästyttää nykyajan evolutionistia. Ja tähän mennessä ehkä se mikä vastaa Magdalenian kulttuuria, aivojen kielialueet sellaisina kuin me ne tunnemme, olivat kehittyneet.</t>
+  </si>
+  <si>
+    <t>Kuulohallusinaatioiden alkuperä</t>
+  </si>
+  <si>
+    <t>Enemmän aptisiin rakenteisiin (tai vanhemmassa terminologiassa "vaistoperäisemmin") perustuva käyttäytyminen ei vaadi ajallista pohjustusta. Mutta opittuja aktiviteetteja, joilla ei ole täydellistä sulkemista, täytyy ylläpitää jonkun itsensä ulkopuolella. Tätä verbaaliset hallusinaatiot tarjoaisivat.</t>
+  </si>
+  <si>
+    <t>Samoin työkalua muovattaessa hallusinoitu sana "terävämpi" mahdollistaa tajuttoman varhaisen ihmisen pysyä tehtävässään yksin. Tai hallusinoitu termi, joka tarkoittaa "hienompaa" yksilölle, joka jauhaa siemeniä kivellä jauhoiksi. Uskon todellakin, että ihmiskunnan historian tässä vaiheessa artikuloitu puhe alkoi kestävien tehtävien valikoivan paineen alaisena muuttua yksipuoliseksi aivoissa, jotta toinen puoli jäi vapaaksi näille hallusinoituneille äänille, jotka voisivat ylläpitää tällaista käyttäytymistä.</t>
+  </si>
+  <si>
+    <t>Nimien aikakausi</t>
+  </si>
+  <si>
+    <t>Tämä on ollut aivan liian lyhyt luonnos siitä, mikä on täytynyt olla osallisena kielen kehityksessä. Mutta ennen kuin jumalia voi olla, piti ottaa vielä yksi askel, tuon tärkeimmän yhteiskunnallisen ilmiön - nimien - keksiminen.</t>
+  </si>
+  <si>
+    <t>On jotenkin hätkähdyttävää tajuta, että nimet olivat tietty keksintö, jonka on täytynyt tulla ihmisen kehitykseen tiettynä aikana. Se on tapahtunut niinkin myöhään kuin mesoliittikaudella, 10 000 - 8000 eaa. kun nimet esiintyivät ensimmäisen kerran. Tämä on ajanjakso, jolloin ihminen sopeutuu lämpimämpään jääkauden jälkeiseen ympäristöön. Laaja jääpeite on vetäytynyt Kööpenhaminan leveysasteelle, ja ihminen avautuu erityisiin ympäristötilanteisiin, niittyjen metsästykseen, elämään metsässä, äyriäisten keräämiseen tai meren luonnonvarojen hyödyntämiseen yhdistettynä maalla tapahtuvaan metsästykseen. Tälle elämiselle on ominaista paljon suurempi populaation vakaus, eikä niitä edeltäneiden metsästysryhmien välttämätön liikkuvuus suurella kuolleisuudellaan. Näillä kiinteämmillä populaatioilla, joilla on kiinteämmät suhteet, pidempi elinikä ja luultavasti suurempi määrä ryhmässä, joka oli erotettava, ei ole vaikea nähdä sekä tarvetta että todennäköisyyttä substantiivien siirtymiselle nimiin yksittäisille henkilöille.</t>
+  </si>
+  <si>
+    <t>Nyt kun heimon jäsenellä on oikea nimi, hänet voidaan tietyssä mielessä luoda uudelleen poissa ollessaan. 'He' voidaan ajatella käyttämällä 'ajattelua' tässä erityisessä tiedostamattomassa merkityksessä, joka sopii kielen rakenteisiin. Vaikka aikaisempiakin hautoja oli ollut, toisinaan hieman monimutkaisia, tämä on ensimmäinen aikakausi, jolloin seremoniaaliset haudat ovat yleisiä. Jos ajattelet läheistäsi, joka on kuollut, ja oletat sitten, ettei hänellä ollut nimeä, mistä surusi koostuisi? Kuinka kauan se voisi kestää? Aikaisemmin ihminen, kuten muutkin kädelliset, oli luultavasti jättänyt kuolleensa sinne, missä he putosivat, tai muuten piilottaneet ne näkyviltä kivillä tai joissain tapauksissa paahtaneet ja syöneet ne. Esimerkiksi Morbihanin mesoliittiset keskiasukkaat hautasivat kuolleensa luupinnoilla kiinnitettyihin nahkaviittoihin ja joskus kruunasivat ne polttarinsarvilla ja suojasivat kivilaatoilla. Muissa aikakauden haudoissa on hautauksia pienillä kruunuilla tai erilaisilla koristeilla, tai mahdollisesti kukkia huolellisesti kaivetuissa paikoissa, ovat kaikki nimien keksimisen tulosta.</t>
+  </si>
+  <si>
+    <t>Maatalouden tulo</t>
+  </si>
+  <si>
+    <t>Olemme nyt kaksikamarinen kauden kynnyksellä, sillä sosiaalisen kontrollin mekanismi, joka voi järjestää suuria miehiä kaupungiksi, on käsillä. Kaikki ovat yhtä mieltä siitä, että muutos metsästys- ja keräilytaloudesta ruokaa tuottavaksi taloudeksi kasvien ja eläinten kesyttämisellä on jättimäinen askel, joka teki sivilisaation mahdolliseksi. </t>
+  </si>
+  <si>
+    <t>Perinteinen teoria korostaa sitä tosiasiaa, että kun jäätiköt peittivät suurimman osan Eurooppaa myöhäispleistoseenin aikana, koko alue Atlantin rannikolta Pohjois-Afrikan ja Lähi-idän halki Zagrosin vuoristoon Iranissa nautti niin runsaasta sateesta, että se todellakin oli valtava lisääntyvä Eden, vehreä, jossa on runsaasti kasveja tukemaan monenlaista eläimistöä, myös paleoliittista ihmistä. Mutta napajääpeiton taantuma siirsi nämä Atlantin sadetuulet pohjoiseen, ja koko Lähi-idästä tuli yhä kuivempi. Luonnonvaraiset ravintokasvit ja riista, joita ihminen oli saalistanut, eivät enää riittäneet hänen elämään pelkällä ravinnonkeruulla, ja seurauksena oli, että monet heimot muuttivat alueelta Eurooppaan, kun taas ne, jotka jäivät keskittyessään keitaisiin ja pakotettuna valloittamaan uusia tukikeinoja, hän alkoi hyödyntää alkuperäisiä kasveja, ja näiden joukosta hän oppi käyttämään kuivalla maalla ja suissa kasvavien eri ruohojen siemeniä. Lähi-idän ympäristön kuivumista "fyysiseksi haasteeksi", oli maataloussivilisaatio vastaus.</t>
+  </si>
+  <si>
+    <t>ENSIMMÄINEN JUMALA</t>
+  </si>
+  <si>
+    <t>Vuonna 10 000 eaa., kuten paleoliittiset edeltäjänsä, natufilaiset olivat metsästäjiä, noin viisi jalkaa pitkiä, asuivat usein luolien suussa, olivat taitavia työstämään luuta ja sarvia sekä leikkaamaan retusoituja teriä ja hautoja piikivistä, ja piirsivät eläimiä melkein yhtä hyvin. Lascaux'n luolapiirustusten taiteilijoina ja käyttivät koristeina rei'itettyjä kuoria tai eläinten hampaita.</t>
+  </si>
+  <si>
+    <t>Vuoteen 9000 eaa. mennessä he hautaavat kuolleensa seremoniallisiin haudoihin ja omaksuvat vakaamman elämän. Jälkimmäiseen viittaavat ensimmäiset merkit rakenteellisesta rakentamisesta, kuten tasanteiden päällystys ja muuraus, jossa on paljon kipsiä, sekä hautausmaat, jotka ovat suurempia kuin millään aikaisemmalla aikakaudella. Tämä johtuu nimien aikakaudesta, kaikessa mitä se tarkoittaa.</t>
+  </si>
+  <si>
+    <t>Tämä muutos näkyy dramaattisimmin ulkona Eynanissa sijaitsevassa natufilaisten asutuksessa. Kolme peräkkäistä pysyvää kaupunkia, jotka ovat peräisin noin 9000 eaa. on kaivettu huolellisesti. Kussakin kaupungissa oli noin viisikymmentä pyöreää ruokokattoista kivitaloa, joiden halkaisija oli enintään 23 jalkaa. Talot järjestettiin avoimen keskusalueen ympärille, jonne oli kaivettu ja rapattu useita kellomaisia ​​kuoppia ruoan säilytystä varten. Joskus näitä kaivoja käytettiin uudelleen hautaamiseen.</t>
+  </si>
+  <si>
+    <t>Luolien suulla asuvan noin kahdenkymmenen metsästäjän nomadiheimon sijaan meillä on vähintään 200 asukkaan kaupunki. Juuri maatalouden tulo, mistä on osoituksena jokaisen talon lattiaan upotettujen sirppien terien, naarmujen ja survinten, kuoppien ja huhmareiden runsaus viljan ja palkokasvien korjaamiseen ja valmistukseen, teki tällaisen pysyvyyden ja populaation mahdolliseksi. Maatalous oli tuohon aikaan äärimmäisen primitiivistä ja vain täydentää monenlaista eläinkuntaa - villivuohia, gaselleja, villisikoja, kettu, jänis, jyrsijät, linnut, kalat, kilpikonnat, äyriäiset, simpukat ja etanat olivat merkittävä osa ruokavaliota.</t>
+  </si>
+  <si>
+    <t>Hallusinogeeninen kuningas</t>
+  </si>
+  <si>
+    <t>Ei tietenkään ole mahdotonta, että yksi päällikkö voi hallita muutamaa sataa ihmistä. Mutta se olisi kuluttava tehtävä, jos tällainen ylivalta joutuisi tapaamisiin kasvokkain, joka toistuu aina niin usein jokaisen yksilön kanssa, kuten tapahtuu niissä kädellisryhmissä, jotka ylläpitävät tiukkaa hierarkiaa. </t>
+  </si>
+  <si>
+    <t>Jumala-kuningas</t>
+  </si>
+  <si>
+    <t>Ihmisen kuoleman aiheuttama stressi oli paljon enemmän kuin tarpeeksi laukaisemaan hänen hallusinoituneen äänensä. Ehkä tästä syystä niin monissa varhaisissa kulttuureissa kuolleiden päät erotettiin usein ruumiista. Haudoissa on usein ruokaa ja todisteita saman ruumiin kaksoishautaamisesta, toisen ollessa yhteisessä haudassa äänien lakkaamisen jälkeen.</t>
+  </si>
+  <si>
+    <t>Jos näin tapahtuisi tavalliselle yksilölle, kuinka paljon enemmän kuninkaalle, jonka ääntä eläessäänkin hallusinaatiot hallitsevat. Voisimme siksi odottaa hyvin erityistä kunnioitusta tämän liikkumattoman miehen talolle, jonka ääni on edelleen koko ryhmän yhteenkuuluvuus.</t>
+  </si>
+  <si>
+    <t>Eynanissa, noin 9000 eaa., on ensimmäinen koskaan löydetty kuninkaan hauta. Itse hauta, kuten kaikki talot, oli pyöreä, noin 16 jalkaa halkaisijaltaan. Sisällä kaksi täydellistä luurankoa makasi keskellä selällään, jalat irrotettuina kuoleman jälkeen ja taipuneena pois asennosta. Yhdellä oli päähine hammaskuorista, ja hänen oletettiin olleen kuninkaan vaimo. Toinen, aikuinen mies, oletettavasti kuningas, oli osittain kivien peitossa ja osittain tuettuna kiville, hänen pystysuora päänsä useammissa kivissä, päin kolmenkymmenen mailin päässä sijaitsevan Hermon-vuoren lumisia huipuja.</t>
+  </si>
+  <si>
+    <t>Sivilisaation menestys</t>
+  </si>
+  <si>
+    <t>Melko äkillisesti arkeologisia todisteita maataloudesta, kuten Eynanin sirppien terät ja jyrsintäkivet, ilmaantuu enemmän tai vähemmän samanaikaisesti useissa muissa paikoissa Levantissa ja Irakissa noin 9000 eaa., mikä viittaa hyvin varhaiseen maatalouden leviämiseen Lähi-idän ylängöillä. Aluksi tämä oli niin kuin Eynanissa, vaihe, jossa syntyvä maatalous ja myöhemmin eläinten kesyttäminen olivat käynnissä hallitsevassa ruoankeruutaloudessa.</t>
+  </si>
+  <si>
+    <t>Mutta vuoteen 7000 eaa mennessä maataloudesta on tullut pääasiallinen toimeentulo maanviljelijöille, joita löytyy erilaisilta Levantin, Zagrosin alueen ja Lounais-Anatolian alueilta. Viljelyt koostuivat einkornista, emmeristä ja ohrasta, ja kesyeläiminä olivat lampaat, vuohet ja joskus siat. Vuoteen 6000 eKr. mennessä maanviljelijäyhteisöt levisivät suureen osaan Lähi-itää. Vuoteen 5000 eaa. mennessä Tigris-Eufratin ja Niilin tulvalaaksojen maanviljelysasutus levisi nopeasti ja paisui väestöstä intensiiviseksi kulttuurimaisemaksi.</t>
+  </si>
+  <si>
+    <t>10 000 asukasta, kuten Merindessä Niilin suiston länsireunalla, ei ollut harvinaista. Urin ja Egyptin suuret dynastiat alkavat vaikuttaa historiaan. Aijanjakso 5000 eKr. tai ehkä viisisataa vuotta aikaisemmin on myös alku geologien holoseenin lämpömaksimiksi, joka kestää noin 3000 eKr. ja jolloin maailman ilmasto, erityisesti siitepölytutkimusten mukaan, oli huomattavasti lämpimämpi. ja nykyistä kosteampi, mikä mahdollistaa maatalouden entistä laajemman leviämisen Eurooppaan ja Pohjois-Afrikkaan sekä tuottavamman maatalouden Lähi-idässä. Ja tässä äärimmäisen monimutkaisessa ihmiskunnan sivilisaatiossa todisteet mielestäni viittaavat siihen, että sen kaiken toimintatapa oli kaksikamarinen mieli.</t>
+  </si>
+  <si>
+    <t>Kuusi Oracular Termiä</t>
+  </si>
+  <si>
+    <t>1. Paikkakunnan oraakkeli. Oraakkelit alkoivat yksinkertaisesti erityisistä paikoista, joissa ympäristön mahtavuuden, tärkeän tapahtuman tai hallusinogeenisen äänen, aaltojen, vesien tai tuulen vuoksi anottavat, kaikki anottavat, saattoivat silti "kuulla" kaksikamarisen äänen suoraan. Lebadea pysyi tällä termillä luultavasti sen merkittävän induktion vuoksi.</t>
+  </si>
+  <si>
+    <t>2. Profeetta oraakkeli. Yleensä silloin esiintyi termi, jossa vain tietyt henkilöt, papit tai papittaret saattoivat "kuulla" jumalan äänen paikkakunnalla.</t>
+  </si>
+  <si>
+    <t>3. Koulutettu profeetta oraakkeli, kun sellaiset henkilöt, papit tai papittaret saattoivat "kuulla" vasta pitkän koulutuksen ja monimutkaisten kutsujen jälkeen. Tähän asti henkilö oli edelleen oma itsensä ja välitti jumalan äänen muille.</t>
+  </si>
+  <si>
+    <t>4. Valvottu oraakkeli. Sitten, ainakin viidenneltä vuosisadalta eaa., tuli kiihtyneen suun ja vääntyneen vartalon hallussapitotermi vielä suuremman harjoittelun ja monimutkaisempien induktioiden jälkeen.</t>
+  </si>
+  <si>
+    <t>5. Tulkittu omistettu oraakkeli. Kognitiivisen imperatiivin heikkeneessä sanat vääristyivät ja apupappien tai papittaren, jotka itse olivat käyneet läpi induktiomenettelyn, piti tulkita ne.</t>
+  </si>
+  <si>
+    <t>6. Epätavallinen oraakkeli. Ja sitten tästäkin tuli vaikeaa. Äänet muuttuivat kireäksi, vallattu profeetta epävakaaksi, tulkinnat mahdottomaksi, ja oraakkeli loppui.</t>
+  </si>
+  <si>
+    <t>Delphin oraakkeli kesti pisimpään. Se on silmiinpistävä todiste sen korkeimmasta merkityksestä Kreikan kulta-aikaisen jumalanostalgiselle subjektiivuudelle, että se kesti niin kauan, varsinkin kun muistetaan, että melkein jokaisessa hyökkäyksessä se asettui hyökkääjän puolelle: Xerxes I:n puolelle alkuaikoina. 500-luvulla eKr., Filip II:n kanssa 400-luvulla eKr. ja jopa Peloponnesoksen sodissa se puhui Spartan puolella. Tällainen kaksikamarinen ilmiöiden vahvuus historian voimissa. Se koki jopa surullisen, hilpeän, isänmaallisen Euripideksen pilkkaansa amfiteattereissa.</t>
+  </si>
+  <si>
+    <t>Sibylit</t>
+  </si>
+  <si>
+    <t>Oraakkeleiden aikakausi kestää koko vuosituhannen kaksikamarisen mielen hajoamisen jälkeen. Ja kun se vähitellen kuolee pois, siellä täällä ilmaantuu niin sanottuja amatöörioraakeleita, kouluttamattomia ja laittomat henkilöt, jotka tunsivat spontaanisti olevansa jumalien vallassa. Tietysti jotkut puhuivat vain skitsofreenistä hölynpölyä. Luultavasti useimmat. Mutta toisilla oli aitoutta, joka saattoi herättää uskoa. Tällaisten joukossa olivat ne harvat, mutta tuntematon määrä outoja ja upeita naisia, jotka tunnettiin nimellä Sibyls (aeolisesta siosista = jumala + petankki = neuvo). Ensimmäisellä vuosisadalla eaa. Varro pystyi laskemaan vähintään kymmenen kerrallaan Välimeren ympärillä. Mutta syrjäisillä alueilla oli varmasti muitakin. He asuivat yksinäisyydessä, toisinaan kunnioitetuissa vuoristopyhäköissä, jotka rakennettiin heille, tai tuppuisissa maanalaisissa luolissa lähellä valtameren huokauksia, kuten suuri kumealainen Sibyl. </t>
+  </si>
+  <si>
+    <t>Epäjumalien herätys</t>
+  </si>
+  <si>
+    <t>Mutta edes nämä eivät voi täyttää tavallisen ihmisen tarvetta transsendenssiin. Oraakkelien ja profeettojen epäonnistumisen jälkeen ikään kuin niiden korvaamiseksi yritetään elvyttää epäjumalia, jotka ovat samanlaisia ​​kuin kaksikamarin aikoihin.</t>
+  </si>
+  <si>
+    <t>Suuret kaksikamariset sivilisaatiot olivat, kuten olemme nähneet, käyttäneet monia erilaisia ​​hahmoja auttamaan kaksikamarinen äänien hallusinaatiossa. Mutta kun nuo äänet lakkasivat sopeutumisesta subjektiiviseen tietoisuuteen, kaikki tämä pimeni. Suurin osa epäjumalista tuhoutui.</t>
+  </si>
+  <si>
+    <t>Egyptissä, jossa kaksikamarinen ja subjektiivisuuden välinen katkaisupiste on paljon vähemmän jyrkkä kuin epävakaimmissa valtioissa, kehittyi niin sanottu hermeettinen kirjallisuus. Tämä on sarja papyruksia, jotka kuvaavat erilaisia ​​induktiomenetelmiä, jotka syntyivät kaksikamarisen varmuuden reunalla ja levisivät tietoiseen maailmaan. Yhdessä niistä on dialogi nimeltä Asclepus (kreikkalaisen parantamisen jumalan mukaan)  joka kuvaa taidetta vangita demonien tai enkelien sieluja patsaisiin yrttien, jalokivien ja hajujen avulla, jotta patsas voisi puhua ja profetoida. Muissa papyruksissa on vielä muitakin reseptejä tällaisten rakentamiseen. kuvat ja niiden animointi, esimerkiksi silloin, kun kuvien tulee olla onttoja, jotta ne sisältävät kultalehteen kaiverretun maagisen nimen.</t>
+  </si>
+  <si>
+    <t>https://motionarray.com/after-effects-templates/grid-slideshow-558234/</t>
+  </si>
+  <si>
+    <t>https://motionarray.com/after-effects-templates/cinematic-presentation-268995/</t>
+  </si>
+  <si>
+    <t>https://motionarray.com/after-effects-templates/epic-title-143522/</t>
+  </si>
+  <si>
+    <t>https://www.videezy.com/free-video/after-effects-templates?content-type-after-effects=true&amp;from=mainsite&amp;in_se=true</t>
+  </si>
+  <si>
+    <t>https://www.videezy.com/after-effects-templates/7668-diamond-tiles-4k-opener-after-effects-template</t>
+  </si>
+  <si>
+    <t>https://editorsdepot.com/category/after-effects</t>
+  </si>
+  <si>
+    <t>https://editorsdepot.com/video/free-kinetic-typography-after-effects-template-2015</t>
+  </si>
+  <si>
+    <t>https://onmotions.com/tron-transitions?wweb&amp;gclid=CjwKCAiA6seQBhAfEiwAvPqu1_9ZbLBFZ-wwZzL5GxfPyubq2PepPgx0GM4Hez8wtIkKR0rzJNTAjhoCrDEQAvD_BwE#pospreview</t>
+  </si>
+  <si>
+    <t>https://mixkit.co/free-after-effects-templates/</t>
+  </si>
+  <si>
+    <t>https://www.premiumbeat.com/blog/10-free-after-effects-templates-typography/</t>
+  </si>
+  <si>
+    <t>https://aedownload.com/download-technology-logo-ai-videohive/</t>
+  </si>
+  <si>
+    <t>https://aedownload.com/download-epic-parallax-cinematic-slideshow-free-videohive/?relatedposts_hit=1&amp;relatedposts_origin=15706&amp;relatedposts_position=5</t>
+  </si>
+  <si>
+    <t>https://www.motionelements.com/free/after-effects-templates</t>
+  </si>
+  <si>
+    <t>https://mixkit.co/free-premiere-pro-templates/</t>
+  </si>
+  <si>
+    <t>https://premiereprocc.com/brush-transitions-adobe-premiere-pro/</t>
+  </si>
+  <si>
+    <t>https://911templates.com/fast_urban</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3kGuN8WIGNc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7orRdaEdOE4</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/known-names/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/symbols/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/graves/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/recorded-history/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/archaeological-sites/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/spoken-languages/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/cave-arts/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/written-languages/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/languages/</t>
+  </si>
+  <si>
+    <t>https://www.oldest.org/culture/civilizations/</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/national/health-science/linguists-identify-15000-year-old-ultraconserved-words/2013/05/06/a02e3a14-b427-11e2-9a98-4be1688d7d84_story.html?noredirect=on&amp;utm_term=.77b29b20e6de</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/science/2012/mar/11/cave-painting-symbols-language-evolution</t>
+  </si>
+  <si>
+    <t>Puheen evoluutiosta (fimnet.fi)</t>
+  </si>
+  <si>
+    <t>Kuuleminen on korvan ja auditorisen hermojärjestelmän toimintaa. Puheen kuuleminen on enemmän kuin pelkän äänen havaitsemista. Puheella on erityinen merkityksensä ja meidän aivomme ovat kehittyneet ymmärtämään puheen merkitystä.</t>
+  </si>
+  <si>
+    <t>Ihmisaivojen peilausjärjestelmällä on varmaan ollut osuutensa kommunikaation kehittymisessä eleitä ja äänteitä matkittaessa.</t>
+  </si>
+  <si>
+    <t>Puhe on enemmän kuin pelkkiä peräkkäin laitettuja sanoja. Puhe ja ihmisen elekieli nivoutuvat tiukasti toisiinsa. Eleet tuovat puheeseen sen, mikä ei välity sanoina. </t>
+  </si>
+  <si>
+    <t>Kun ihminen valehtelee, hänen elekielensä ei seuraa puhetta ja yhdistelmä aiheuttaa kuulijan hämmentymisen. Viesti hajoaa kun eleet eivät mene oikein. Toisaalta kirjoitettaessa tai luettaessa puhekeskukset aivoissa aktivoituvat.</t>
+  </si>
+  <si>
+    <t>Ihminen käyttää päivittäin keskimäärin noin tuhatta sanaa ja tavallisessa sanakirjassa niitä on noin 150 000.</t>
+  </si>
+  <si>
+    <t>Kieli käyttää muutamaan äänteeseen perustuvaa tavujen joukkoa. Tavut muodostavat sanoja ja sanat lauseita ja merkityksiä.</t>
+  </si>
+  <si>
+    <t>Puheviestinnässä annetaan asioille ja esineille nimi. Tämä mahdollistaa abstraktin ajattelun ja älyllisen tuotoksen. Puheviestintä on ihmisen ominaisuus ja kieli on kulttuurinen ja sosiaalinen ilmiö.</t>
+  </si>
+  <si>
+    <t>Tietoisuus perustuu kieleen, mutta se alkoi jo ennen sivilisaatioita, n. 12 000 eaa., suunnilleen samaan aikaan, kun äänien kuulemisen kaksikamarinen mentaliteetti alkoi. </t>
+  </si>
+  <si>
+    <t>Tämä ajoitus näkyy Mesopotamian todisteissa, joissa kaksikamarisen mielen hajoaminen noin vuodesta 1200 eaa. alkaen oli jo melko selvää. Se johtui kaoottisista yhteiskunnallisista hajoamisista, ylikansoituksesta ja luultavasti siitä, että kirjoittaminen korvasi kuuloisen komentotavan. Tämä hajoaminen johti moniin käytäntöihin, joita kutsumme nykyään uskonnollisiksi ja jotka olivat pyrkimyksiä palata jumalten kadonneisiin ääniin, kuten rukous, uskonnollinen palvonta ja ennustamiset, jotka ovat uusia tapoja tehdä päätöksiä oletettavasti palaamalla jumalien ohjeisiin yksinkertaisen analogian perusteella.</t>
+  </si>
+  <si>
+    <t>Kaksikamarisen mielen hypoteesin esitti amerikkalainen psykologi Julian Jaynes (1920-1997) kirjassaan "Tietoisuuden alkuperä kaksikamarisen mielen hajoamisessa". Jaynes esitti, että nykytietoisuus, sellaisena kuin me sen tunnemme, syntyi aikaisemman mentaliteetin hajoamisesta. Jaynesin johtopäätös oli, että noin 3000 vuotta sitten ihmiset eivät olleet tietoisia nykyaikaisessa mielessä. Hän väitti, että moderni tietoisuus nousi esiin kulttuurisena keksintönä Kreikassa samoihin aikoihin kuin kreikkalaiset aakkoset omaksuttiin. Platon toimi tuon aikakauden tietoisen mielen tulkkina.</t>
+  </si>
+  <si>
+    <t>Tietoisuutta edeltänyt mielentila, jota Jaynes kutsui kaksikamariseksi mieleksi, oli hallusinoitujen äänien maailma. Nämä äänet kertoivat esi-isillemme, mitä tehdä, kun kohtaamme uusia olosuhteita tai tapahtumia. Nämä äänet olivat hänen mielestään ääniä, jotka ajattelimme jumalien ääniksi. Jaynes väitti, että ihmiset eivät olleet tietoisia olentoja aikaisemmin noin 3000 vuotta sitten. </t>
+  </si>
+  <si>
+    <t>Jaynesin mukaan ihmiset toimivat koko ajan tietämättömästi, jolloin ajatusten ja tekojen tietoinen huomioon ottaminen olisi pelkkä keskeytys tälle normille. Voit todennäköisesti käyttäytyä kuin eräänlainen robotti, kun purat astianpesukonetta. Olet tehnyt sen tuhansia kertoja, joten olet tavallaan autopilotti. Autopilotti "sammuu" vain, kun tapahtuu jotain odottamatonta. Ehkä rikot lasin, pudotat haarukan tai asetat jotain väärään laatikkoon. Elämä olisi autopilotin tila - hallusinoidun äänen ilmetessä vain silloin, kun tapahtui jotain uutta: pudonnut haarukka, rikkoontunut lasi jne. Ääni, jonka voisi tulkita jumalaksi tai esi-isän hengeksi, kertoo meille, kuinka toimia.</t>
+  </si>
+  <si>
+    <t>Jaynes väitti, että kaksikamaristen ihmisten aivot käyttivät kieltä välittääkseen kokemuksia oikealta vasemmalle aivopuoliskolle. Jaynes ajatteli, että aivot käyttivät kieltä välittääkseen kokemuksia yhdeltä aivopuoliskolta toiselle muinaisissa ihmisissä - mitä me nykyään kutsumme kuulohallusinaatioiksi. Gazzanigan vasemman aivotulkkiteoria, jossa kielikeskeinen vasen aivopuolisko tuottaa eräänlaisen tarinan, joka selittää, miksi ei-hallitseva oikea aivopuolisko teki jotain, esitti itsetuntemuksemme syntyvän tästä "tulkinnasta". </t>
+  </si>
+  <si>
+    <t>Jaynes väitti, että kaksikamarisen mielen hajoaminen olisi johtunut metaforien käytöstä. Moderni tietoisuus, hän kirjoitti, on metaforapohjainen todellisuuden malli, joka perustuu tapaan, jolla käytämme kieltä metaforien luomiseen. </t>
+  </si>
+  <si>
+    <t>arkeologiset todisteet osoittavat, että ryhmän koko on noin kolmekymmentä. Tätä määrää rajoitti mielestäni sosiaalisen kontrollin ongelma ja yksilöiden välisten viestintäkanavien avoimuus, ja se on tämän ryhmän koon rajoituksen ongelma, jonka jumalat ovat saattaneet tulla evoluutiohistoriaan ratkaisemaan.</t>
+  </si>
+  <si>
+    <t>1. Tietoisuus perustuu kieleen. Tietoisuus ei ole sama asia kuin kognitio, ja se tulee erottaa siitä jyrkästi.</t>
+  </si>
+  <si>
+    <t>Yleisin virhe on tietoisuuden ja havainnoinnin sekoittaminen.</t>
+  </si>
+  <si>
+    <t>Havainto on ärsykkeen havaitsemista ja asianmukaista reagointia, ja se voi tapahtua tiedostamattomalla tasolla.</t>
+  </si>
+  <si>
+    <t>Mielitilaa pidän tietoisuuden ensisijaisena ominaisuutena. Se on tila, jota ennakolta "tutkistelet" tai "näet" juuri tällä hetkellä.</t>
+  </si>
+  <si>
+    <t>Mutta kuka "näkee"? Kuka tekee itsetutkiskelun? Tässä esittelemme analogian, joka eroaa metaforasta siinä, että samankaltaisuus on suhteiden välillä eikä asioiden tai toimien välillä. </t>
+  </si>
+  <si>
+    <t>Kuten keho aistielineineen (kutsutaan minäksi) on fyysistä näkemistä, niin siellä kehittyy automaattisesti analoginen 'minä', joka liittyy tähän mentaaliseen "näkemiseen" mieliavaruudessa. Analoginen "minä" on tietoisuuden toiseksi tärkein ominaisuus. Sitä ei pidä sekoittaa itseen, joka on tietoisuuden kohde myöhemmässä kehityksessä. Analoginen "minä" on sisällötön, mielestäni liittyy Kantin transsendenttiseen egoon. Kuten ruumiillinen minä voin liikkua ympäristössään katsoen sitä tai tätä, niin analoginen "minä" oppii "liikkumaan" mieliavaruudessa, "osoittelemaan" tai keskittymään yhteen tai toiseen.</t>
+  </si>
+  <si>
+    <t>Kaikki tietoisuuden menettelyt perustuvat sellaisiin metaforeihin ja analogioihin käyttäytymisen kanssa, rakentaen huolellisen matriisin huomattavasta vakaudesta. Ja niin kerromme todellisen käyttäytymisen analogisen simulaation, tietoisuuden ilmeisen puolen, joka näyttää välttyneen aikaisemmista synkronisista tietoisuuskeskusteluista. Tietoisuus sovittaa asioita jatkuvasti tarinaan ja asettaa ennen ja jälkeen minkä tahansa tapahtuman. Tämä ominaisuus on analoginen fyysiselle itsellemme, joka liikkuu fyysisen maailman halki sen avaruudellisen peräkkäisyyden kanssa, josta tulee ajan peräkkäisyyttä mieli-avaruudessa. Ja tämä johtaa tietoiseen käsitykseen ajasta, joka on spatialisoitu aika, jossa paikannamme tapahtumat ja todellakin elämämme. On mahdotonta olla tietoinen ajasta millään muulla tavalla kuin tilana.</t>
+  </si>
+  <si>
+    <t>Tietoisuuden konnotatiivinen perusmääritelmä on siis analoginen "minä", joka kertoo toiminnallisessa mielentilassa. Denotatiivinen määritelmä on, kuten Descartesille, Lockelle ja Humelle, mikä on introspektiivistä.</t>
+  </si>
+  <si>
+    <t>2. Kaksikamarinen mieli. Toinen päähypoteesi on, että ennen tietoisuutta oli erilainen mentaliteetti, joka perustui verbaalisiin hallusinaatioihin. Tästä mielestäni todisteet ovat ylivoimaisia. Mihin tahansa katsomme antiikin aikaan, on olemassa jonkinlainen todiste, joka tukee sitä, joko kirjallisissa teksteissä tai arkeologisissa esineissä. Tämän teorian lisäksi, miksi on olemassa jumalia? </t>
+  </si>
+  <si>
+    <t>Miksi uskonnot? Miksi kaikki muinainen kirjallisuus näyttää käsittelevän jumalia ja yleensä kuullaan jumalilta?</t>
+  </si>
+  <si>
+    <t>Ja miksi meillä ylipäätään on sanallisia hallusinaatioita?</t>
+  </si>
+  <si>
+    <t>3. Treffit. Kolmas yleinen hypoteesi on, että tietoisuus opittiin vasta kaksikamarinen mielen hajoamisen jälkeen. Uskon, että tämä on totta, että tuska siitä, että ei tiennyt mitä tehdä jumalien menetyksen aiheuttamassa kaaoksessa, loi sosiaaliset olosuhteet, jotka saattoivat johtaa uuden mentaliteetin keksimiseen vanhan tilalle.</t>
+  </si>
+  <si>
+    <t>Mutta itse asiassa tässä on kaksi mahdollisuutta. Teorian heikko muoto väittäisi, että kyllä, tietoisuus perustuu kieleen, mutta sen sijaan, että se olisi niin tuore, se alkoi jo kielen alussa, ehkä jopa ennen sivilisaatiota, n. 12 000 eaa., suunnilleen siihen aikaan, kun äänien kuulemisen kaksikamarinen mentaliteetti alkoi. </t>
+  </si>
+  <si>
+    <t>Molemmat mielenjärjestelmät olisivat voineet jatkua yhdessä, kunnes kaksikamarinen mieli muuttui raskaaksi ja syrjäytettiin jättäen tietoisuuden omakseen ihmisten päätösten välineeksi. Tämä on äärimmäisen heikko kanta, koska se voisi sitten selittää melkein mitä tahansa ja on melkein kiistämätön.</t>
+  </si>
+  <si>
+    <t>Vahva muoto kiinnostaa enemmän ja on sellainen kuin olen todennut esitellessäni kaksikamarisen mielen käsitteen. Se asettaa hämmästyttävän äskettäisen päivämäärän tämän tietoisuudeksi kutsutun salaisten tapahtumien huomattavan yksityisyyden tuomiselle. Päivämäärä on hieman erilainen eri puolilla maailmaa, mutta Lähi-idässä, josta kaksikamarinen sivilisaatio sai alkunsa, päivämäärä on noin 1000 eaa.</t>
+  </si>
+  <si>
+    <t>Thera-räjähdys aiheutti teokratian häiriön Lähi-idässä ja siten edellytykset ei-hallusinatorisen mentaliteetin oppimiselle, on mielestäni pätevää. Mutta yleisessä tapauksessa haluan pikemminkin korostaa, että teokraattisen maataloussivilisaation menestys tuo mukanaan ylikansoituksen ja siten oman romahtamisen siemeniä. Tätä ehdotetaan ainakin MesoAmerikan sivilisaatioiden keskuudessa, jossa sivilisaatioiden nousun ja tuhon suhteellinen nopeus ja siitä johtuva temppelikompleksien autioituminen ovat ristiriidassa vanhojen maailman osien tuhansia vuosia kestäneiden sivilisaatioiden kanssa.</t>
+  </si>
+  <si>
+    <t>4. Kaksoisaivot. Kun missä tahansa keskustelussa tai jopa ajattelussamme voimme käyttää spatiaalisia termejä, kuten ongelman "paikantamisessa" tai vaikeuden "asettamiseksi" väittelyssä, ikään kuin kaikki olemassa oleva olisi levinnyt kuin maa edessämme, näytämme saavan selkeyden tunne. Tämä näennäinen selkeys, kuten sitä pitäisi kutsua, johtuu tietoisuuden avaruudellisesta luonteesta. Joten paikantaessamme toimintoja aivojen eri osissa näytämme saavan niistä ylimääräisen selkeyden - perusteltuja tai ei.</t>
+  </si>
+  <si>
+    <t>Oikea pallonpuolisko on se puolipallo, joka käsittelee tietoa synteettisellä tavalla. Vielä useammista tutkimuksista tiedetään nykyään hyvin, että oikea pallonpuolisko on paljon parempi kuin vasen lohkorakenteiden (Kohs Block Design Test), kasvojen osien tai sointujen sovittamisessa yhteen, ja tällaiset synteettiset toiminnot olivat todellakin neuvovat jumalat sovituksessa</t>
+  </si>
+  <si>
+    <t>sivilisaatiot yhdessä.</t>
+  </si>
+  <si>
+    <t>Haluan korostaa, että nämä neljä hypoteesia ovat erotettavissa. Esimerkiksi viimeinen voi olla väärä (ainakin esittämässäni yksinkertaistetussa versiossa) ja muut totta. Aivojen kaksi puolipalloa eivät ole kaksikamarinen mieli, vaan sen nykyinen neurologinen malli. Kaksikamarinen mieli on ikivanha mentaliteetti, joka on osoitettu antiikin kirjallisuudessa ja esineissä.</t>
+  </si>
+  <si>
+    <t>Mutta se on myös alku, ihmisluonnon avautuminen sellaisena kuin me sen tunnemme ja tunnemme sen syvällisesti, koska tietoisesti itsessämme, kaikkine hankaluuksineen, selkeyksineen ja epäselvyyksineen. Dokumentaation ansiosta voimme nähdä tämän selvimmin Kreikassa ensimmäisen vuosituhannen ensimmäisellä puoliskolla eKr., jossa muutosta voidaan todella kutsua Kognitiivinen räjähdys.</t>
+  </si>
+  <si>
+    <t>Muistuttava muisti (tai episodinen muisti, kuten sitä joskus kutsutaan), jyrkästi päinvastoin kuin tottumusten säilyttäminen (tai semanttinen muisti), on uutta tietoisuuden omaavalle maailmalle. Ja koska fyysiseen tilaan maailmassa voidaan aina palata, niin me tunnemme irrationaalisesti, jotenkin varmoja, mahdottoman varmoja, että meidän pitäisi pystyä palaamaan uudelleen johonkin usein keskeneräiseen suhteeseen, johonkin lapsuuden kohtaukseen tai tilanteeseen tai katuneeseen rakkaudenpurkaukseen tai malttia tai peruuttaa jokin traaginen sattumanvarainen teko takaisin kuviteltuun olemattomaan menneisyyden tilaan.</t>
+  </si>
+  <si>
+    <t>Meillä on siis tietoinen elämä ja elämä ja voimme kurkistaa huomisen hämärän läpi kohti omaa kuolemaamme. Herakleitoksen esittelyllä kuudennella vuosisadalla eaa. me keksimme uusia sanoja tai todellisuudessa vanhojen sanojen muunnelmia nimeämään prosesseja tai symboloimaan toimintoja ajan mittaan lisäämällä loppuliitteen sis ja siten olemaan tietoisia niistä, kuten kreikan kielessä. gnosis, tietäminen; synty, alku; painotus, sisääntulo; analyysi, löystyminen; tai erityisesti phronesis, joka käännetään eri tavoin älyksi, ajatteluksi, ymmärrykseksi tai tietoisuudeksi. Nämä sanat ja prosessit, joihin ne viittaavat, ovat uusia kuudennella ja seitsemännellä vuosisadalla eaa.</t>
+  </si>
+  <si>
+    <t>Itse</t>
+  </si>
+  <si>
+    <t>Kokoamalla tämän uuden elämän aikana samanlaisia ​​tapahtumia tai otteita niistä – päätelmiä siitä, mitä muut kertovat meille olevansa ja siitä, mitä voimme kertoa itsellemme oman tietoisuutemme perusteella.</t>
+  </si>
+  <si>
+    <t>tekemissämme – alamme rakentaa tai keksiä jatkuvasti itsessämme ja muissa itseämme. Itsenäisen idean etuna on auttaa sinua tietämään, mitä voit tai et voi tehdä tai mitä sinun pitäisi tai ei pitäisi tehdä. Kaksikamarisilla yksilöillä oli vakaa identiteetti, nimet, joihin he tai muut saattoivat liittää epiteettejä, mutta tällainen sanallinen identiteetti on paljon matalampi käyttäytymismuoto kuin tietoisesti rakennettu, vaikkakin vaihteleva, hauras ja puolustava minä, joka horjuu meitä vaihtoehtojen läpi. tietoisesti elämisestä.</t>
+  </si>
+  <si>
+    <t>Peilien kanssa useimmat kalat, linnut tai nisäkkäät reagoivat täysin välinpitämättömästi tai osallistuvat sosiaalisiin tai aggressiivisiin esityksiin tai hyökkäävät heidän peilikuviinsa. Mutta ihmiset ja simpanssit ovat erilaisia: he pitävät peileistä. Ihmislapset käyvät läpi neljä käyttäytymisvaihetta peilikuvansa suhteen. Aluksi reaktio on vähäistä, sitten hymyilee, koskettaa, ääntelee ikään kuin se olisi toinen lapsi, sitten testausvaihe tai toistuva toiminta tarkkailemalla peilikuvaa tarkasti, ja sitten, kun lapsi on melkein kaksivuotias, aikuisen reaktio kuvaan ikään kuin se olisi omansa. Tämän viimeisen vaiheen testinä on ollut levittää punaista nenää lapsen nenään ja sitten pyytää lasta katsomaan peiliin ja katsomaan, koskettaako lapsi sen nenää – minkä se tekee helposti. kaksivuotiaana.</t>
+  </si>
+  <si>
+    <t>Mutta todellinen kiinnostus tätä ilmiötä kohtaan alkoi, kun Gallup osoitti, että sama vaikutus voidaan saavuttaa simpansseilla. Simpanssit, saatuaan laajan kokemuksen peileistä, asetettiin syväanestesiaan. Sitten kulmakarvaan tai korvan yläosaan siveltiin näkyvä punaista väriainetta. Herättyään simpanssit eivät kiinnittäneet huomiota merkintöihin, mikä osoitti, ettei paikallista kosketusstimulaatiota ollut. Mutta kun peili tarjottiin, simpanssit, jotka olivat jo hyvin tuttuja peilikuvansa, tarttuivat välittömästi väritäplään hieroakseen tai poimiakseen sen osoittaen, että he tiesivät peilikuvansa itsestään. Muut simpanssit, joilla ei ollut kokemusta peileistä, eivät reagoineet tällä tavalla. Siksi väitettiin, että simpansseilla on itsensä ja itsensä tunnistaminen. Tai, yhden eläinkäyttäytymisen tärkeimmistä vanhoista henkilöistä sanoin, "tulokset antavat selkeän todisteen simpanssien itsetietoisuudesta".</t>
+  </si>
+  <si>
+    <t>Tämä johtopäätös on virheellinen. Itsetietoisuus tarkoittaa yleensä tietoisuutta omasta persoonastamme ajan mittaan, tunnetta siitä, keitä olemme, toiveitamme ja pelkojamme, kun haaveilemme itsestämme suhteessa muihin. Emme näe tietoista minäämme peileissä, vaikka siitä kuvasta voikin tulla monessa tapauksessa minän tunnus. Tässä kokeessa olleet simpanssit ja kaksivuotias lapsi oppivat pisteestä pisteeseen -suhteen peilikuvan ja kehon välillä, niin upea kuin se onkin. Peilistä havaitun pisteen hankaaminen ei olennaisesti eroa vartalosta havaitun pisteen hieromisesta ilman peiliä. Eläimen ei näytetä kuvittelevan itseään missään muualla tai ajattelevan elämäänsä ajan myötä tai tutkivan itseään missään mielessä – kaikki merkit tietoisesta itsestään.</t>
+  </si>
+  <si>
+    <t>Kaivauksissa on löydetty suuria määriä pystystöjä kiviä tai muuta materiaalia. Siellä oli phallin amuletteja. Maljakkomaalauksissa näkyy alastomia naistanssijia heilumassa fallosta dionysialaisessa kultissa. Yhdessä kirjoituksessa kuvataan toimenpiteitä, joihin sotienkin aikana on ryhdyttävä, jotta falloskulkue johdetaan turvallisesti kaupunkiin. Siirtokuntien oli lähetettävä phalleja Ateenaan suuria dionysolaisia ​​juhlia varten. Jopa Aristoteles viittaa fallisiin farsseihin tai satyyrinäytelmiin, jotka yleensä seurasivat suurten tragedioiden rituaalisuorituksia.</t>
+  </si>
+  <si>
+    <t>Ja taas pyytäisin sinua pohtimaan ongelmaa kaksikymmentäviisisataa vuotta sitten, jolloin ihmiset olivat ensin tietoisia ja saattoivat ensin haaveilla seksistä, kuinka he oppivat hallitsemaan seksuaalista käyttäytymistään saavuttaakseen vakaan yhteiskunnan. Erityisesti koska erektiokudos on miehellä näkyvämpi kuin naisella ja että jopa osittaisista erektioista saatu palaute edistäisi seksuaalisen fantasian jatkumista (prosessia kutsutaan värväytymiseksi), voisimme olettaa, että tämä oli paljon enemmän miesten ongelma kuin naisen. Ehkä tällaiseen valvontaan syntyneet sosiaaliset tavat johtivat sukupuolten suurempaa sosiaalista eroamiseen (mikä oli varmasti ilmeistä Platonin aikaan) sekä lisääntyneeseen miesten dominointiin. Tässä suhteessa voidaan ajatella moderneja ortodoksisia muslimiyhteiskuntaa, joissa paljastunut naisen nilkka tai hiuskimppu on lain mukaan rangaistavaa.</t>
+  </si>
+  <si>
+    <t>Myönnän varmasti, että sanomani todisteissa on suuria vapaita paikkoja. Ja tietysti on muitakin vaikutteita, kuten vihan muuttuminen vihaksemme, tai positiivisempia, kuten innostus tietoisuuden maagisella kosketuksella, josta tulee ilo, tai rakkauteen tietoinen kuuluminen. Olen valinnut ahdistuksen, syyllisyyden ja seksin sosiaalisesti tärkeimmäksi. Freudilaisen vakuuttelun lukijat huomaavat, että heidän teoretisointinsa voisi alkaa tästä. Toivon, että nämä hypoteesit voivat tarjota minua pätevämmille historioitsijoille uuden tavan tarkastella tätä ihmiskunnan historian äärimmäisen tärkeää ajanjaksoa, jolloin niin suuri osa siitä, mitä pidämme modernina psykologiana ja persoonallisuutena, muodostui ensimmäistä kertaa.</t>
+  </si>
+  <si>
+    <t>Viimeinen taso on meta -tietoisuus, jossa tulemme tietoisiksi tietoisuudesta itsestään. Tällä tasolla olemme kykeneväisiä havainnoimaan omaa toimintaamme, ajatteluamme ja kehollisia reaktioitamme. Tietoisuutemme on laajempi kuin normaalisti ollessamme ajatusvirran vietävänä ja tunnereaktioihimme samaistuneena. Tällöin saatamme sanoa, että ”Huomaan tuntevani vihan tunnetta”. Tämä tietoisuuden tila mahdollistaa toisenlaisen valinnan toiminnan suhteen kuin ajatukseen tai tunteeseen samaistuneisuuden tila, jossa toimimme nuoruuden aikana oppimiemme automaattisten reagointimallien mukaisesti.</t>
+  </si>
+  <si>
+    <t>"Kauneus on totuuden hymy, kun hän katsoo omia kasvojaan täydellisessä peilissä." - Rabindranath Tagore</t>
+  </si>
+  <si>
+    <t>https://howstuffworks.wiki/fi/tiede/biotiede/evoluutio/bicameralism</t>
+  </si>
+  <si>
+    <t>https://www.worldhistory.org/timeline/writing/</t>
+  </si>
+  <si>
+    <t>https://biblehub.com/timeline/</t>
+  </si>
+  <si>
+    <t>https://www.edge.org/conversation/vilayanur_ramachandran-self-awareness-the-last-frontier</t>
+  </si>
+  <si>
+    <t>Evoluutio hyödyntää usein olemassa olevia rakenteita kehittääkseen täysin uusia kykyjä. Kun kyky osallistua poikkimodaaliseen abstraktioon ilmaantui – verkkokalvon visuaalisen "pystysuoran" ja lihasten signaalin valoa vastaanottavan "pystysuoran" välillä (puihin tarttumiseen), loi se perustan peilihermosolujen syntymiselle hominideissa. Peilihermosoluja on runsaasti myös alemmassa parietaalilohkossa – rakenteessa, joka laajeni kiihtyvällä vauhdilla apinoissa ja myöhemmin ihmisissä. Kun aivot kehittyivät pidemmälle, lokero jakautui kahdeksi pyörteeksi – supramarginaaliseen gyrukseen, jonka avulla "heijastetaan" omia odotettuja toimia. Peilihermosolut suorittavat pohjimmiltaan eräänlaista abstraktiota toiminnan yli visuaalisissa ja motorisissa kartoissa. Tämä puolestaan ​​on saattanut tasoittaa tietä käsitteellisemmille abstraktiotyypeille; kuten metafora ("Ota ote itsestäsi").</t>
+  </si>
+  <si>
+    <t>Itsetietoisuus on yksinkertaisesti peilineuronien käyttöä "katsomaan itseään ikään kuin joku muu katsoisi". Peilihermosolumekanismi – sama algoritmi – joka alun perin kehitettiin auttamaan omaksumaan toisen näkökulman, käännettiin sisäänpäin katsomaan omaa itseä. Tämä on pohjimmiltaan perusta sellaisille asioille kuin "itsetutkiskelu". Kyky kääntyä sisäänpäin itsetutkiskelua tai -heijastusta varten voi olla eräänlainen metaforinen jatke peilihermosolujen kyvylle lukea muiden ajatuksia.</t>
+  </si>
+  <si>
+    <t>Äskettäin on osoitettu, että jos tajuissaan hereillä olevan ihmispotilaan parietaalilohkoa stimuloidaan neurokirurgian aikana, hänellä on joskus "kehon ulkopuolinen" kokemus - ikään kuin hän olisi irrallinen olento, joka tarkkailee omaa kehoaan ylhäältä lähellä kattoa. Tämä johtuu stimuloivan elektrodin aiheuttamasta parieto-okcipitaalisen liitoksen peilihermosolujärjestelmän toimintahäiriöstä. Nämä neuronit aktivoituvat tavallisesti, kun "omaksumme" tilapäisesti toisen näkemyksen kehostamme ja mielestämme.</t>
+  </si>
+  <si>
+    <t>Hominidien kommunikatiivisen käyttäytymisen muutos ihmiskieltä kohtaan alkoi symbolisesta kommunikaatiosta. Symbolisella viestinnällä tarkoitamme symbolien käyttöä, joista jokainen edustaa suoraan, johdonmukaisesti ja yksinomaan kokonaisuutta maailmassa. Ensimmäisen symbolisen kommunikatiivisen signaalin ilmaantuminen hominidien keskuudessa ei ole vain tärkeä evoluution maamerkki, vaan se edustaa myös kvanttiharppausta kädellisten kommunikaatiosta. Ennen tätä maamerkkikehitystä hominidien kommunikatiivisten signaalien ei pitäisi olla laadullisesti erilaisia ​​kuin kädellisten kommunikatiiviset signaalit. </t>
+  </si>
+  <si>
+    <t>Ei-ihmiskädellisten kommunikatiiviset signaalit eivät ole symbolisia. Niillä on toimintoja, ei merkityksiä. </t>
+  </si>
+  <si>
+    <t>Monet paleoantropologit uskovat, että kieli syntyi yhdessä anatomisesti nykyihmisen kanssa. Toisin sanoen satunnainen puhuttu kieli osui samaan aikaan anatomisesti nykyihmisen ilmaantumisen kanssa Afrikkaan noin 150–130 tuhatta vuotta sitten. On kuitenkin olemassa yhdistelmä paleodemografiasta, molekyyligenetiikasta ja useista arkeologisista löydöistä saatuja todisteita, jotka viittaavat siihen, että kielen kiteytyminen ei ehkä ole sattunut samaan aikaan anatomisesti nykyajan ihmisen ilmaantumisen kanssa. Tämä todisteiden yhdistelmä on saanut olettamaan, että kieli syntyi noin 80–60 tuhatta vuotta sitten, useita kymmeniä tuhansia vuosia anatomisesti nykyaikaisten ihmisten ilmestymisen jälkeen.</t>
+  </si>
+  <si>
+    <t>Noin 60 000–40 000 vuotta sitten ihmispopulaation koko alkoi ensimmäisen räjähdysmäisen kasvunsa. Dramaattinen kasvu alkoi keskipaleoliittisen ajanjakson lopussa noin 40 000 vuotta sitten. Toinen suuri väestönkasvu ihmiskunnan historiassa tapahtui neoliittisen ajanjakson alussa, noin 10 000 vuotta sitten. Tämän toisen väestöräjähdyksen liikkeellepaneva voima tunnetaan maatalouden kehityksenä.</t>
+  </si>
+  <si>
+    <t>Noin 40 000 vuotta ennen nykypäivää tapahtui taiteen "alkuräjähdys". Vanhimmat tähän mennessä löydetyt säilyneet kalliomaalaukset ovat 36 500–32 000 vuotta vanhoja Veronan luoteeseen Fumane-luolasta löydetyt punaokkerihahmot puoliksi ihmisistä ja puoliksi pedoista, sekä Grotte Chauvet -maalaukset noin 32 000 vuotta eläimistä. Grotte Chauvet'n maalausten taiteelliseen hienostuneisuuteen sisältyy sellaisia ​​hienostuneita tekniikoita kuin varjostus ja perspektiivi, mikä viittaa pitkälle taiteellisten käsitteiden ja käsitteiden kehitysjaksolle. Henkilökohtainen koristelu on toinen puoli taiteen alkuräjähdyksessä. Vanhimmat norsunluusta veistetyt helmien ja pedanttien muodossa olevat koristeet ovat 35 000 vuotta vanhoja. Nämä koristeet ovat käsitteellisesti, symbolisesti ja teknisesti monimutkaisia, mikä viittaa modernin ihmismielen työhön.</t>
+  </si>
+  <si>
+    <t>Noin 50 000–40 000 vuotta sitten, ylemmän paleoliittisen ajanjakson alussa, työkalut, kuten taide, aloittivat jyrkästi kaikkien muiden aikaisempien työkalusarjojen vastakohtana ennennäkemättömän monipuolistumisen ja erikoistumisen kiihtymisen. Tämä työkalujen monipuolisuuden ja monimutkaisuuden kehitys oli maailmanlaajuista. </t>
+  </si>
+  <si>
+    <t>Yläpaleoliittisia työkaluja ovat varrelliset terät, jotka ovat vähintään kaksi kertaa niin pitkiä kuin ne ovat leveitä, sekä lukuisia varrellisia pieniä geometrisesti muotoiltuja työkaluja, kuten talttoja ja viiloja luuinstrumenttien kaiverrukseen ja valmistukseen. Ne osoittavat hienostuneisuutta, johon liittyy suunnittelu ja symboliikka, joita ei ole aikaisemmin saavutettu hominidin historiassa.</t>
+  </si>
+  <si>
+    <t>Australian kolonisaatio tapahtui noin 60 000 vuotta sitten. Tuolloin Australia, Papua-Uusi-Guinea ja Tasmania muodostivat jäätikön vuoksi yhden yhtenäisen maamassan, kun taas monet Indonesian saariston nykyiset saaret liittyivät Aasian Malesian niemimaalle. Australiaan saapuminen Aasiasta merkitsi noin 100 kilometriä syvän, nopeasti liikkuvan valtameren ylittämistä. Sellainen meren ylittäminen vaati yhteiskunnallista organisointia, yhteistoimintaa, hienostunutta suunnittelua, tiettyjä taitoja, laitteita ja tietämystä navigoinnista.</t>
+  </si>
+  <si>
+    <t>Yhteenvetona voidaan todeta, että nämä neljä todistetta osoittavat yhdessä uuden kognitiivisen kapasiteetin kehittyneelle kulttuurille, joka syntyi 80 000–60 000 vuotta sitten. Emme voi lukea tätä uutta kognitiivista kykyä suurempien aivojen ansioksi, koska ihmisen kallon kapasiteetti on heikentynyt sen jälkeen, kun anatomisesti moderni ihminen syntyi noin 150 000–120 000 vuotta sitten. </t>
+  </si>
+  <si>
+    <t>Moderni kulttuurin kyky näyttää syntyneen noin 50 000 vuotta sitten ja sen mukana käyttäytymisellään nykyihmiset, jotka pystyivät asuttamaan maapallon.</t>
+  </si>
+  <si>
+    <t>Hominidin kommunikatiivisen käyttäytymisen kiteytyminen kieleksi on kaikkien kolmen todisteen taustalla: ensimmäinen ja äkillinen ihmisväestön nousu, taiteen suuri räjähdys, työkalujen räjähdysmäinen kehitys ja syvän, nopeasti liikkuvan valtameren ylitys, joka erottaa Aasian Australiasta.</t>
+  </si>
+  <si>
+    <t>Neljä evoluutioprosessia johtivat kielen syntymiseen </t>
+  </si>
+  <si>
+    <t>Ruoansulatuskanavan väheneminen</t>
+  </si>
+  <si>
+    <t>Ruoansulatuskanavan väheneminen on välttämätön samanaikainen kehitys enkefalisaation lisääntymiselle hominidien evoluutiossa. Syynä on se, että laajentuneet aivot kuluttavat valtavan määrän energiaa, jonka on tultava jonkun hominidianatomian homeostaattisen järjestelmän osan kustannuksella. Esimerkiksi vastasyntyneen lapsen aivot kuluttavat 60 % saamastaan ​​energiasta. Ruokavalion muutos hominidien historiassa on päätelty arkeologisista todisteista, kivettyneen leuan koosta ja kivettyneen hampaiden yksityiskohtaisista ominaisuuksista: niiden koosta, muodosta, juovittelusta, pintarakenteesta ja kiilteen paksuudesta. Muutos on ravintoarvon kasvun suuntaan. Nautitun ruoan lisääntynyt ravitsemus helpotti evoluutioprosessia. Liha ja merenelävät ovat ravintorikkaimpia ruokia. Niistä tuli osa Homo-sukuun kuuluvien hominidien ruokavaliota. Kypsennetty ruoka helpotti myös ruoansulatusta ja mahdollisti G.I:n kutistumisen. Keittäminen voi myös lisätä erilaisten mukuloiden sokeripitoisuutta. Varhaisin tulisijan käyttö on 400 000–300 000 vuotta sitten. Lee Berger väittää, että tulisija oli olemassa Etelä-Afrikassa noin 900 000 vuotta ennen nykypäivää eräässä hominidipaikassa. Jos Berger on oikeassa Etelä-Afrikan tulisijan suhteen, kypsennetyllä ruoalla on saattanut olla osansa G.I:n alenemisessa Hominidien evoluutiossa. </t>
+  </si>
+  <si>
+    <t>Ruokavalio, jossa on 60 % keitettyjä mukuloita, noin sama osuus, jota käytetään nykyaikaisessa afrikkalaisessa ruokavaliossa, lisää värin saantia noin 43 %. Jokaisella neliökilometrillä Tansanian savannimetsässä, sisältää nykyään 40 000 kiloa mukuloita. Keitetyt mukulat, enemmän kuin liha, mahdollistivat suurten aivojen, pienempien hampaiden, lyhyempien käsivarsien ja pitkien jalkojen kehittymisen ja jopa uros-naarassidoksen.</t>
+  </si>
+  <si>
+    <t>Nikamakanavan laajentuminen</t>
+  </si>
+  <si>
+    <t>Rintakehän nikamakanava laajeni homidi-evoluutiossa 1,6 miljoonan vuoden ja 150 000 vuoden takaisen ajanjakson aikana rintakehän innervation tehostamiseksi kylkiluiden välisiä lihaksia, jotka ohjaavat hengitystä puheen aikana. Anatominen evoluutioprosessi nikamakanavan laajentamiseksi hominidien historiassa on mukautus äänentoistokyvyn parantamiseksi.</t>
+  </si>
+  <si>
+    <t>Kurkunpään laskeutuminen</t>
+  </si>
+  <si>
+    <t>Kurkunpään laskeutuminen on toinen asteittainen evoluutioprosessi, joka tapahtui Homo-suvun lajien keskuudessa. Se johti L-muotoisen äänikanavan asteittaiseen muodostumiseen, mikä helpotti artikulaatiota. Israelin kebara-neandertalilaisilla oli spesifinen nivelluu, jota alas laskeutuva kurkunpää vaati.</t>
+  </si>
+  <si>
+    <t>Enkefalisaation lisääntyminen</t>
+  </si>
+  <si>
+    <t>Ihmisaivojen suuri koko muihin kädellisiin verrattuna ilmenee näkyvästi neokorteksissa. Neokorteksilla, evoluution kannalta uusimmalla uloimmalla "nahkalla" tai "kuorella", on kriittinen rooli kaikessa ihmisen kognitiivisessa käyttäytymisessä. Valtavan kokonsa vuoksi se antaa ihmisille upean kognitiivisen muistin ja muita ominaisuuksia. Loistava kognitiivinen muisti on kielen edellytys, koska sanaston ja kieliopin lisäksi jokaisella kielellä on valtava joukko omaperäisiä tapoja ilmaista asioita. Kieli voidaan nähdä asioiden sanomisen koodina. On olemassa useita käytäntöjä, jotka rajoittavat sitä, miten asiat pitäisi sanoa kielellä yleisesti tai tietyissä yhteyksissä. Puhujan tulee ilmaista ajatuksensa käsitteillä, joihin äidinkielenään puhujat ovat tottuneet. Idiomaattisuuden rikkominen on luonnotonta puhumista. </t>
+  </si>
+  <si>
+    <t>Tästä kielen tärkeästä ominaisuudesta seuraa se, että kielellinen käyttäytyminen vaatii upeaa muistia. Aivomme neokorteksin on kyettävä tallentamaan valtava määrä oppimisen kautta hankittua tietoa: sanastoa, kielioppia ja lukemattomia tapoja sanoa asioita. Tämä tieto hankitaan oppimalla. Saatamme olla geneettisesti taipuvaisia ​​omaksumaan kielen ontologisesti. Koska kieli on lajikohtaista kommunikatiivista käyttäytymistämme, ei ole mitään epätavallista, että ihmiset ovat geneettisesti taipuvaisia ​​hankkimaan kieltä. </t>
+  </si>
+  <si>
+    <t>Jokainen eläinkunnan laji on joko geneettisesti ohjelmoitu tai taipuvainen kehittämään lajikohtaista kommunikatiivista käyttäytymistään. Kädellisten äänituotanto on suurelta osin synnynnäistä, vaikka äänen käyttö ja oikea kommunikaatiovaste lajitovereille vaativat jonkin verran oppimista. Lasten ensimmäisen satunnaisen puhutun kielen hankkiminen vaatii kuitenkin paljon oppimista ja pitkää, vaivalloista prosessia verrattuna kädellisten kommunikaatiokäyttäytymisen ontologiseen kehitykseen.</t>
+  </si>
+  <si>
+    <t>Ihmisen taipumus oppimiseen</t>
+  </si>
+  <si>
+    <t>Satunnainen puhuttu kieli ei tarkoita kielikohtaisten periaatteiden ja parametrien luontaista mallia. Synnynnäistä on ihmisaivojen arkkitehtoninen ja kronotooppinen kehitys ontogeniassa, joka kanavoi ihmislapsen huomion ympäristönsä kielelliseen ja sosiaaliseen vuorovaikutukseen ja mahdollistaa sen, että lapsi oppii monimutkaisen symbolisen käyttäytymisen, joka vaatii muun muassa upeaa muistia. Kielen hankkiminen on siis monimutkainen vuorovaikutus tämän synnynnäisen taipumuksen ja kieliympäristön välillä.</t>
+  </si>
+  <si>
+    <t>Lapsi oppii kieliympäristöstään sanaston, kieliopin ja lukemattomia tapoja sanoa asioita kielellä. Fyysiseen kokoomme nähden suuri neokorteksti on tärkeä osa geneettistä taipumusta kielen hankkimiseen. Mutta ihmisillä ei ole luonnostaan ​​mitään tietoa siitä, miten asiat sanotaan millään kielellä. Lukuisat tavat sanoa asioita kielellä vaativat pitkän oppimisprosessin ja valtavan määrän muistamista sanaston ja kieliopin lisäksi.</t>
+  </si>
+  <si>
+    <t>Koska kieli vaatii laajaa kognitiivista muistia sanaston ja lukemattomien sanomistapojen vuoksi, uuskorteksin laajenemisen hominidien evoluutiossa täytyy olla yhteydessä kielen alkuperään.</t>
+  </si>
+  <si>
+    <t>On syytä huomauttaa, että huolimatta siitä, että enkefalisaation lisääntyminen on saanut eniten huomiota kielen alkuperän tutkimuksessa, muut kolme evoluutioprosessia, nimittäin maha-suolikanavan väheneminen, nikamakanavan lisääntyminen ja kurkunpään laskeutuminen, ovat yhtä tärkeitä.</t>
+  </si>
+  <si>
+    <t>Kolme evoluutiomekanismia kielen syntymisen taustalla</t>
+  </si>
+  <si>
+    <t>Kotigeenien monistus</t>
+  </si>
+  <si>
+    <t>Anatomisten, fysiologisten tai käyttäytymiseen liittyvien fenotyyppisten ominaisuuksien äkillisen alkuperän taustalla oleva mekanismi on pääsäätelygeenien, niin sanottujen homeoottisten geenien, päällekkäisyys.</t>
+  </si>
+  <si>
+    <t>Fenotyyppisten piirteiden äkillinen alkuperä täydentää klassista darwinilaista evoluutiomuutosta, jolla on taipumus olla asteittaista, mutta äkillinen alkuperä on myös darwinistinen. Epätavallista siinä on taustalla olevan geneettisen muutoksen luonne, nimittäin pääsäätelygeenien, homeoottisten geenien, päällekkäisyys.</t>
+  </si>
+  <si>
+    <t>Homeoottiset geenit määrittävät transkriptiotekijöiden synteesin, jotka kytkevät päälle tai pois rakenteelliset geenit kehittyvässä alkiossa. Rakennegeenien kytkeminen päälle tai pois päältä määrää tiettyjen entsyymien synteesin ja tiettyjen fysikaalisten rakenteiden kasvun tai kasvun puuttumisen. Pieni esimerkki muutoksesta näissä pääsäätelygeeneissä ihmisillä on kuuden sormen kasvu toisessa kädessä.</t>
+  </si>
+  <si>
+    <t>Suurin osa ihmisen homeoottisista geeneistä osoittautuu evoluution eri aikoina tapahtuneiden geenien päällekkäisyyksien tuotteiksi. Geenien päällekkäisyydellä evolutionaarisena innovaationa on kaksi selkeää etua. Ensinnäkin geenien moninkertaistuminen voi saavuttaa yhdellä iskulla sen, mikä on saattanut viedä aioneja aikaa luodakseen asteittaisten ja hajanaisten evoluutiomuutosten kumulatiivisen vaikutuksen jokaisessa alkuperäisessä geenissä. Toiseksi, kun pääsäätelygeeni monistetaan, monistettu geeni voi joutua mutaatioihin ja siten suorittaa uusia toimintoja, koska alkuperäinen geeni jatkaa vanhojen toimintojensa suorittamista, jotka ovat välttämättömiä organismin selviytymiselle.</t>
+  </si>
+  <si>
+    <t>Jos uusia toimintoja suosii luonnonvalinta, saamme äkillisen uuden fenotyyppisen ilmentymän ja mahdollisesti uuden lajin. Rakennekehitystä säätelevien geenien kaksinkertaitumisen seuraus on, että myös muodostuneissa rakenteissa tulee näkyä päällekkäisyyden merkkejä. Kaksinkertaiset rakenteet kuitenkin modifioidaan, jos duplikoidut geenit ovat läpikäyneet mutaation. Ilmeinen esimerkki toistuvista rakenteista ihmisissä on selkärankainen. </t>
+  </si>
+  <si>
+    <t>Aivoissa on myös monia toistuvia rakenteita, esimerkiksi alkion varhaisessa kehitysvaiheessa olevat säteittäiset yksiköt, jotka ovat viime kädessä vastuussa neokorteksin koosta ja arkkitehtonisesta kuviosta. Nämä toistuvat rakenteet ovat saattaneet syntyä fylogeneettisesti säätelygeenien päällekkäisyydestä.</t>
+  </si>
+  <si>
+    <t>Fenotyyppisten ominaisuuksien äkillinen alkuperä ei tarkoita mitään vihjausta kielen äkillisestä alkuperästä. Päinvastoin, kesti noin 1,5–2 miljoonaa vuotta ennen kuin hominidin kommunikatiivisesta käyttäytymisestä kehittyi satunnainen puhuttu kieli. Fenotyyppisten ominaisuuksien äkillisen alkuperän mekanismin merkitys kielen alkuperälle piilee aivojen kehityksessä hominidin historiassa. Monet neokorteksin alueet ovat saattaneet syntyä evoluutiossa olemassa olevien alueiden päällekkäisyydestä geneettisen mutaation seurauksena. Tämä evoluutiomekanismi tekee tyhjäksi hominidiaivojen dramaattisen laajentumisen viimeisen kahden ja puolen miljoonan vuoden aikana, mikä on suhteellisen lyhyt aika evoluution mittakaavassa.</t>
+  </si>
+  <si>
+    <t>Kehityskellon muutos</t>
+  </si>
+  <si>
+    <t>Toinen evoluutiomekanismi koskee kehityskellon muutosta. Kehityskello ilmaisee eläimen tai eläimen elimen ontologisen kehityksen pituutta.</t>
+  </si>
+  <si>
+    <t>Molekyylikellon pituuden määräävä molekyylimekanismi on kuitenkin monimutkainen, ja se sisältää säätelygeenejä sekä solujen välisestä viestinnästä muodostuvan palautejärjestelmän. Tämä evoluutiomekanismi on tärkeä kielen alkuperän kannalta. Ihmisen kieli liittyy erottamattomasti suuriin aivoihin. Yksi syy siihen, että Homo sapiensin aivot ovat suhteellisesti suuria esimerkiksi suuriin apinoihin verrattuna, on se, että ihmisaivojen kehityskello pidentyy huomattavasti. Ihmislapsen aivokoko ei ole paljon suurempi kuin simpanssin vauvan. Mutta ihmislapsen aivot jatkavat kehityspolkuaan lähes kaksikymmentä vuotta. Simpanssin aivot lopettavat laajentumisen kolmen kuukauden kuluttua syntymästä.</t>
+  </si>
+  <si>
+    <t>Vaikka aivojen kehityskellon piteneminen on osittain vastuussa hominidien enkefalisaation lisääntymisestä, niin kehon kehityskellon hidastuminen vaikuttaa myös ruumiin kokoon suhteutettujen suurten ihmisaivojen syntymiseen. Kehon kehityskellon hidastaminen tarkoittaa kehitysprosessin lopettamista kauan ennen kuin ihmiskeho ehtii saavuttaa aivoja vastaavan vaiheen ja koon. Tämä tulos tunnetaan somatisaation vähenemisenä. </t>
+  </si>
+  <si>
+    <t>Esimerkki ihmisen kehityskellon hidastumisesta on ihmisen hampaiden myöhäinen puhkeaminen. Apinoilla maitohampaat tulevat esiin pian syntymän jälkeen. Imeväisillä maitohampaat puhkeavat edelleen pitkälle toisena vuotena. Apinoilla poskihampaat puhkeavat välittömästi maitohampaiden poistuttua. Ihmisillä kolmannet poskihampaat, niin sanotut viisaudenhampaat, puhkeavat vasta myöhään teini-iässä tai parikymppisenä.</t>
+  </si>
+  <si>
+    <t>Vaikka molekyylibiologit eivät ole vielä selventäneet täydellistä kuvaa siitä, kuinka kehityskello määräytyy, tiedämme, että kehityskellon muutos ei välttämättä vaadi pitkäaikaisia ​​kumulatiivisia geneettisiä mutaatioita. Toisin sanoen hominideilla kehon ja aivojen kehityskellon muutos voi tapahtua äkillisesti. Nämä muutokset selittävät osittain suhteellisen suuren hominidilajien määrän viiden miljoonan vuoden aikana ennen anatomisesti nykyaikaisten ihmisten syntyä.</t>
+  </si>
+  <si>
+    <t>Käyttäytymisenevoluution syy-rooli</t>
+  </si>
+  <si>
+    <t>Kolmas evoluutiomekanismi on käyttäytymisen kausaalinen rooli evoluutiossa. Tämä on evoluutiomekanismi, joka on taipumus jäädä huomiotta nykyaikaisessa, geneettisesti perustuvassa evoluutioteoriassa. Eläinten käyttäytyminen voi vaikuttaa oman lajinsa kehityksen kulun suuntaan. Tähän mennessä tiedämme, että esimerkiksi selkärankaisilla tunkeutuminen uuteen elinympäristöön alkaa tyypillisesti käyttäytymisestä eikä geneettisestä mutaatiosta. Tunnetuimpia tapauksia ovat Galapagossaarten darwin-peipot. Uusi elinympäristö vapauttaa eläimeen vaikuttavia uusia luonnonvalinnan voimia ja siirtää eläimen uuteen evoluution suuntaan.</t>
+  </si>
+  <si>
+    <t>Sosiaalinen oppiminen vaikutti suoraan hominidien ja hominoidien biologiseen evoluutioon. Sosiaalinen oppiminen on tietysti prosessi, jonka kautta innovatiivinen käyttäytyminen voi siirtyä innovaattorilta sen sosiaalisille kohortteille ja seuraavalle sukupolvelle. Sosiaalinen oppiminen on myös kriittistä äidinkielen hankinnassa. </t>
+  </si>
+  <si>
+    <t>Vuosikymmeniä sitten äidinkielen oppimisen tutkimuksen painopiste oli lasten kielen oppimisprosessin luova puoli. Empiiriset tutkimukset viimeisen kahdenkymmenen vuoden aikana ovat osoittaneet, että vaikka lasten kielen omaksumisessa on ehdottomasti luova puoli, sosiaalinen oppiminen ja matkiminen ovat erittäin tärkeitä. Hominidien evoluutionaarisessa kehityksessä sosiaalisen oppimisen ja jäljittelyn nopeus ja kapasiteetti kasvoivat dramaattisesti. Laajentumisen taustalla on neurologinen enkefalisaation lisääntyminen. Tarkemmin sanottuna peilihermosolujen lisääntymisellä uuskorteksissa on merkittävä rooli hominidien oppimis- ja jäljittelykapasiteetin laajentamisessa.</t>
+  </si>
+  <si>
+    <t>Peilihermosoluja löytyy monilta neokorteksin alueilta, mukaan lukien Brocan alue. Koska ne ovat vastuussa sekä tuotannosta että havainnosta, mikä tahansa peilihermosolujen määrän lisääntyminen yhdistysneokorteksissa parantaa oppimis- ja jäljittelykykyä. Oletamme, että peilihermosolujen lukumäärän kasvu hominidien evoluutiossa on verrannollinen enkefalisaation lisääntymiseen.</t>
+  </si>
+  <si>
+    <t>Symbolisen viestinnän vaatimaton alku</t>
+  </si>
+  <si>
+    <t>Useat kielitieteen, psykologian ja lasten kielen todisteet viittaavat siihen, että jonkin konkreettisen esineen esittäminen kommunikatiivisella signaalilla on kognitiivisesti vähiten vaativaa kaikista symbolisista kommunikatiivisista käyttäytymismalleista. Ensimmäinen askel hominidiaivojen ja kommunikatiivisen käyttäytymisen yhteisevoluutiossa on konkreettisen esineen nimeäminen.</t>
+  </si>
+  <si>
+    <t>Symbolisella käytöksellä, kuten me kaikki tiedämme, on valtava sopeutumisarvo. Pelkästään kyky nimetä edes yksi konkreettinen esine, kuten saalistaja tai saalis tai ruoka antaisi merkittävän kilpailuedun ihmisryhmälle. Oletetaan, että varhainen hominidi, esimerkiksi Homo erectus, keksisi luovan innovaation välähdyksessä ensin yhden kommunikatiivisen signaalin, joka symboloi jotakin konkreettista kohdetta, hänen sosiaalinen ryhmänsä voisi oppia tällaisen symbolisen kommunikatiivisen signaalin keksijältä. Tämän seurauksena tällä Homo erectus -ryhmällä olisi kilpailuetu selviytymisen ja lisääntymisen suhteen muihin hominideihin verrattuna. Oletamme, että ennen ensimmäisen symbolisen kommunikatiivisen signaalin esiintymistä hominidien kommunikaatiokäyttäytyminen ei eronnut merkittävästi nykyajan ei-ihmiskädellisten kommunikaatioiden suunnittelusta. Erityisesti tällainen oletus viittaa siihen, että kädellisten tavoin varhaisten hominidien kommunikatiivisilla signaaleilla on vain toimintoja, mutta ei merkitystä. </t>
+  </si>
+  <si>
+    <t>Ensimmäisen symbolisen signaalin keksimisen nerous piilee siirtymisessä keskiaivoista neokortexiin signaalituotannon ensisijaiseksi hermosubstraatiksi. Tästä syystä ensimmäisen symbolisen kommunikatiivisen signaalin keksiminen on niin tärkeä innovaatio. Innovaatiohetkellä neokorteksin osa, joka kaapattiin välittämään muutaman ensimmäisen symbolisen kommunikatiivisen signaalin tuotantoa, saattoi olla yhdistysneokorteksin Broca-Wernicken alue, joka todennäköisesti ohjasi tiettyä motorista käyttäytymistä vasteena kuulotulolle. </t>
+  </si>
+  <si>
+    <t>Tämä ensimmäinen innovaatio luo pohjan kommunikatiivisen käyttäytymisen, aivojen, kulttuurin, sosiaalisen ryhmän koon ja muiden anatomisten innovaatioiden yhteisevoluutiolle. Etukäyttäytymisen olettamisesta geneettisen mutaation sijaan, joka käynnistää yhteisevoluutioprosessin, pitäisi olla ilmeinen. Uutta kommunikatiivista käyttäytymistä voidaan siirtää oppimisen ja jäljittelyn kautta muille sosiaalisen ryhmän jäsenille ja tuleville sukupolville. </t>
+  </si>
+  <si>
+    <t>Jos alkuperäinen symbolinen kommunikaatiokäyttäytyminen täytyisi synnyttää geneettinen mutaatio, niin ne, jotka eivät ole käyneet läpi tällaista geneettistä mutaatiota, eivät olisi eivätkä voineet käyttäytyä. On erittäin epätodennäköistä, että kokonainen sosiaalinen ryhmä hominideja kaikki koki saman geneettisen mutaation samaan aikaan. Jos vain yksi hominidi kokisi tällaisen mutaation, tämä hominidi erottuisi kummajaisena vertaistensa joukossa, koska kukaan muu ei pystyisi tuottamaan tai ymmärtämään sen uutta kommunikatiivista käyttäytymistä. Tällaisessa tapauksessa, jopa ottamatta huomioon normaalia geneettisen ajautumisen vaikutusta, olisi erittäin epätodennäköistä, että tällainen mutaatiosta johtuva geneettinen ominaisuus voisi levitä ja menestyä. </t>
+  </si>
+  <si>
+    <t>Kognitiivinen varaus</t>
+  </si>
+  <si>
+    <t>Kognitiivisella varauksella tarkoitetaan kognitiivista kykyä, joka ei ole täysin hyödynnetty tai ilmene nisäkkään normaalissa käyttäytymisvalikoimassa. Erilaiset projektit, joissa apinoita koulutetaan manipuloimaan kielellisiä symboleja, ovat todiste apinoiden kognitiivisesta reservistä erityisesti symbolisen viestinnän alueella. Huolimatta kiistasta, joka liittyy näiden simpanssien Sarahin ja Washon, bonobo Kanzin ja gorrilla Kokoon liittyvien projektien onnistumisasteeseen, ei ole epäilystäkään siitä, että nämä suurapinat pystyvät hankkimaan ja käyttämään joitain kielellisiä merkkejä laajan ja intensiivisen harjoittelun jälkeen. On totta, että apinoiden kommunikointi luonnollisessa ympäristössään on täysin ei-symbolista eivätkä ne anna merkkejä symbolisen kommunikaation kehittymisestä. Vain ihmisen väliintulon kautta he onnistuvat hankkimaan joitain kielellisiä symboleja. Tärkeää on, että heillä on kognitiivinen reservi joidenkin kielellisten symbolien hankkimiseen ja käyttämiseen, vaikka hankintaprosessi olisikin hyvin luonnoton. </t>
+  </si>
+  <si>
+    <t>Evoluution näkökulmasta kognitiivisen varannon olemassaolo ei ole ollenkaan yllättävää. Itse asiassa sitä odotetaan. Evoluutio ei luo keskushermostoa ilman varaa odottamattomille vaatimuksille tai odottamattomille ympäristö- tai ekologisten olosuhteiden muutoksille. Nisäkkäät, joilla ei ole tällaista varakapasiteettia, eivät todennäköisesti selviä kovin pitkään muuttuvassa maailmassa, ja maailma muuttuu aina eikä koskaan ole pulassa odottamattomista.</t>
+  </si>
+  <si>
+    <t>Todisteet kognitiivisesta varauksesta ulottuvat kuitenkin pidemmälle kuin ihmisten onnistuminen kouluttaa apinoita hankkimaan kielellisiä symboleja. On tapauksia, joissa nisäkkäät käyttäytyvät luonnollisessa ympäristössään, mikä viittaa kognitiivisten kykyjen tasoon, joka ylittää huomattavasti sen, mikä ilmenee heidän tavanomaisessa käyttäytymisvalikoimassaan. Yksi tunnetuimmista esimerkeistä on Kojiman saarella sijaitseva japanilainen makakki, joka on hankkinut menetelmät hiekan peittämien perunoiden puhdistamiseen ja viljan tehokkaaseen lajitteluun. Myös ensimmäinen löytö kivi-/puuvasaran ja sopivan alustan käyttämisestä alasimena pähkinöiden murtamiseen </t>
+  </si>
+  <si>
+    <t>Puhuttu vs. kirjoitettu kieli</t>
+  </si>
+  <si>
+    <t>Kesti noin 1,5–2 miljoonaa vuotta, ennen kuin hominidiviestintä kehittyi täydelliseksi kieleksi, sellaisena kuin se nykyään tunnetaan. "Täysi kieli" tarkoittaa satunnaista puhuttua kieltä. Se ei ole kirjoitettua kieltä, joka eroaa merkittävästi arkipuheisesta kielestä sanaston, kieliopin sekä johdonmukaisuuden ja organisoinnin osalta. Toisin kuin yleisesti uskotaan, kirjoitettu kieli ei ole vain puhekieltä, joka on kirjoitettu muistiin. Kirjoitettu kieli on tuore kulttuurikeksintö, jolla on runsaan 5000 vuoden historia ja joka edustaa kulttuurin kruunaamista ja erittäin tärkeätä kulttuurin välinettä, mutta se on sopimaton perusta päätellä kielen rakennetta ja ominaisuuksia sen alkupisteessä. </t>
+  </si>
+  <si>
+    <t>Kun hominidin kommunikaatiokäyttäytyminen kehittyi kieleksi, se on puhuttu kommunikatiivisen välineen sosiaaliseen vuorovaikutukseen, johon osallistuu useampi kuin yksi osallistuja. Se ei ole kirjoitettu kieli. Jos päättelemme kielen ominaisuudet sen alkuperäpaikalla nykyajan satunnaisesta puhutusta kielestä, vapaudumme taakasta selvittää, kuinka hominidit ovat vähitellen kehittäneet kommunikatiivisen käyttäytymisen, jolle on tunnusomaista loogisuus, erittäin korkea koherenssi ja tiukasti jäsennelty organisaatio kirjallisella kielellä. Toisin sanoen hominidin kommunikatiivisen käyttäytymisen kehittyminen satunnaiseksi puhutuksi kieleksi on evoluution vaihe, joka on kronologian, prosessin ja sisällön suhteen täysin erilainen kuin satunnaisen puhutun kielen evoluutio kirjalliseksi kieleksi. </t>
+  </si>
+  <si>
+    <t>Ensimmäinen vaihe on biologinen evoluutio darwinilaisessa kehyksessä. Toinen vaihe on kulttuurinen kehitys, jolla ei ole mitään tekemistä darwinilaisten käsitysten kanssa luonnollisesta valinnasta ja satunnaisesta mutaatiosta.</t>
+  </si>
+  <si>
+    <t>Kohti kielen kiteytymistä</t>
+  </si>
+  <si>
+    <t>Ensimmäinen vaihe evoluution kehityksessä kohti satunnaista puhuttua kieltä on kommunikatiivisten symbolien lisääntyminen konkreettisille esineille, esim. ruokaa, saalistajaa, maamerkin esineitä, erilaisia ​​eläimiä, erilaisia ​​kasveja. Tässä vaiheessa jokaisen uuden symbolin luominen edustaa hominidin neroutta, ja jokaisen uuden symbolin asettaminen sen sosiaalisen ryhmän, johon luoja kuuluu, kommunikatiivisten signaalien ohjelmistoon, vaatii sosiaalista ja kulttuurista tarttumista. </t>
+  </si>
+  <si>
+    <t>Sosiaalinen ryhmä koostuu todennäköisimmin läheisistä sukulaisista alun perin ennen kuin se ulottuu kauempaa sukulaiseen klaaniin. On tärkeää ymmärtää, että koko prosessi on evoluutiotapahtuma. Sitä ei tapahtunut joka päivä. Sitä ei tapahtunut joka vuosi, eikä se luultavasti tapahtunut joka sukupolvelle. Meidän on vältettävä alitajuisesti heijastamasta mielentilaamme evoluutiokohtaukseen, jossa ovat mukana hominidi-esi-isämme. Heillä ei ollut kognitiivista kykyä eikä kulttuuriympäristöä, joka meillä on. He olivat pitkän evoluutiopolun alussa, joka lopulta johti kielen syntymiseen. Heillä ei ollut vielä kieltä. Uskomme, että symbolinen kommunikaatio alkoi Homo erectuksesta. </t>
+  </si>
+  <si>
+    <t>Uskomukseen on useita syitä: </t>
+  </si>
+  <si>
+    <t>(a) Homo erectus -aivot ovat 800–950 cc:n kokoisuudessa huomattavasti suurempia kuin kaikkien aikaisempien hominidien aivot, mukaan lukien Homo habilis, Homo-suvun ensimmäinen laji. </t>
+  </si>
+  <si>
+    <t>(b) Homo erectus -aivoissa on lisääntynyt aivojen epäsymmetria. </t>
+  </si>
+  <si>
+    <t>(c) Ne ovat ensimmäiset hominidit, jotka muuttivat pois Afrikasta ja pääsivät Aasiaan ja Indonesiaan asti, mistä todistavat kuuluisat Pekingin ja Java-miehen fossiilit. Muuttoliike viittaa väestön lisääntymiseen, mikä puolestaan ​​viittaa korkeampaan kuntotasoon, mikä johtuu todennäköisesti parantuneesta kommunikaatiokyvystä. </t>
+  </si>
+  <si>
+    <t>(d) Homo erectuksen ajoista lähtien hominidin aivojen evoluutio osoitti asteittaista kasvua tilavuudessa, hienostuneisuudessa ja epäsymmetrioissa, joita ei voitu yhdistää allometrisesti. Toisin sanoen Homo erectus -aivot kehittyivät yksinomaan kognitiivisen kapasiteetin lisäämistä varten. Aivojen evoluutioprosessi korreloi symbolisen kommunikatiivisen käyttäytymisen asteittaisen kehityksen kanssa.</t>
+  </si>
+  <si>
+    <t>Muutaman kommunikatiivisen symbolin omistaminen konkreettisille esineille ei kuitenkaan tarkoita sitä, että olisi tietoinen abstraktista periaatteesta, jonka mukaan symbolinen kommunikaatiokäyttäytyminen yhdistetään konkreettisiin esineisiin, vaikka symboli itsessään on tämän periaatteen merkki. Kommunikatiivisen symbolin käyttäminen konkreettisessa esineessä ja sen luomistoimen taustalla olevan periaatteen tiedostamisen välillä on merkittävä ero. </t>
+  </si>
+  <si>
+    <t>Konkreettisia esineitä merkitsevien kommunikatiivisten signaalien ilmaantuminen 1,5–2 miljoonaa vuotta sitten ei siis merkinnyt kielen kynnystä. Jokaisen uuden kommunikatiivisen signaalin lisääminen, joka symboloi toista konkreettista objektia, on merkittävä askel evoluution polulla kohti kielen syntyä. Jokainen evoluution vaihe tapahtuu ajan evolutionaarisella asteikolla. Ei ole nopeaa uusien kielellisten symbolien sarjaa sen jälkeen, kun kielellinen symboli ilmestyi jonkin Homo erectuksen kommunikatiiviseen ohjelmistoon. </t>
+  </si>
+  <si>
+    <t>Lisäksi jokaisen kielellisen symbolin käyttöä välitettiin sosiaalisesti. Myös tämä lähetysprosessi vei aikaa. Japanilaisten makakien tapaus Kojiman saarella antaa vihjeen tartuntanopeudesta hominidin kielen kommunikatiivisen käyttäytymisen evoluution alkuvaiheessa. Sen jälkeen, kun naarasnero makakki keksi hiekan peittämien perunoiden pesun merivedessä, kesti neljä vuotta, ennen kuin käytös levisi kahdeksaan joukon jäseneen, jotka kaikki sattuivat olemaan naiskehittäjän lähisukulaisia. Hidas kulttuurin leviäminen havaitaan myös simpansseilla, jotka oppivat pähkinänsärkymisestä luonnossa. Nuorelta simpanssilta kestää 5–6 vuotta hallita täysin pähkinöiden murskaamista. </t>
+  </si>
+  <si>
+    <t>Tiivis sosiaalinen side ilmeisesti helpotti uuden käyttäytymisen oppimista. Oppiminen ei kuitenkaan ollut hetkellistä. Sen sijaan anatomisesti nykyaikaiset ihmiset oppivat yksinkertaisia ​​taitoja ja omaksuvat uusia käyttäytymismalleja lähes vauhdikkaasti. Kuten aiemmin mainitsimme, oppimisnopeuttamme helpottaa todennäköisesti suurempi määrä peilihermosoluja, joita meillä on.</t>
+  </si>
+  <si>
+    <t>Luovan innovaatiotoiminnan ohella kielellisten symbolien laajentuminen kehittyi yhdessä enkefalisoitumisen, kulttuurin vahvistumisen, yhteiskunta- ja väestön koon kasvun sekä eri aikoina merkittävien anatomisten innovaatioiden kanssa. Enkefalisoitumisen lisääminen oli tarpeen, koska kommunikatiivisten symbolien käsittelyyn vaadittiin suurempaa kognitiivista kapasiteettia ja muistia ja koska peilihermosolujen lisääntyminen paransi oppimisen nopeutta ja kykyä.</t>
+  </si>
+  <si>
+    <t>Kulttuurin tehostaminen oli tarpeen, koska se helpotti uusien ihmisten leviämistä. luotu kielellinen symboli. Yhteiskunnallisen ryhmän ja väestön koon kasvattaminen oli välttämätöntä, koska mitä enemmän hominidit hankkivat kielellisiä kommunikatiivisia symboleja, sitä todennäköisemmin ilmaantuisi uusi nero, joka luo ylimääräisen kielellisen symbolin toisille konkreettisille esineille. </t>
+  </si>
+  <si>
+    <t>Anatomisiin innovaatioihin sisältyy myös G.I. rintahermojen laajeneminen, somatisaation väheneminen ja kurkunpään laskeutuminen. Nämä muutokset ilmenivät yhteisevoluutioprosessin kautta. Niitä ei ilmennyt muutamassa sukupolvessa. Yhtäältä hominidin kommunikoinnin kehittyminen kieltä kohtaan tarvitsi tätä monitahoista yhteisevoluutioprosessia; toisaalta hominidiviestinnän kehittyminen kielen suuntaan sen mukautuvan arvon vuoksi työnsi hominidi-esi-isämme alas evoluution polulle, joka johti näihin monitahoisiin innovaatioihin. </t>
+  </si>
+  <si>
+    <t>Tämän noin 1,5–2 miljoonaa vuotta kestäneen monimutkaisen yhteiskehityksen lopputuote on kieli. Kehitysvauhti ei kuitenkaan ollut tasaista. Suurimman osan kahdesta miljoonasta vuodesta kehitykselle oli ominaista pysähtyneisyys. Kielellisten symbolien määrän kasvu eteni etanan vauhtia. Kahden miljoonan vuoden loppupuolella, eli suunnilleen anatomisesti nykyihmisen ilmaantumisen aikoihin, kehitysvauhti alkoi kiihtyä. </t>
+  </si>
+  <si>
+    <t>Jos piirretään 1,5–2 miljoonan vuoden evoluution kehitys käyräksi, jonka pystyakseli edustaa hominidin kommunikatiivisen käyttäytymisen muutosnopeutta kielen suuntaan ja vaaka-akselia aikaa, käyrän muoto on hyvin samanlainen kuin käyrät, jotka osoittavat hominidipopulaation kasvua ja kivityökalujen kehitystä. Käyrän ensimmäinen segmentti on viiva, jonka kaltevuus on erittäin loiva, ja se luonnehtii pääasiassa pysähtyneisyyttä suurimman osan 1,2–2 miljoonasta vuodesta. </t>
+  </si>
+  <si>
+    <t>Käyrän toinen segmentti on jyrkkä käänne jyrkäksi nousuksi, joka luonnehtii dramaattisesti nopeaa lähestymistapaa kieleen viimeisen 100–150 tuhannen vuoden aikana. Terävät suuntamerkit osoittavat, että kriittinen määrä kielellisiä symboleja on saavutettu, ja symbolit alkoivat laajentua konkreettisten esineiden osoittamisesta tekoihin, toimiin, tapahtumiin, kokemuksiin, ajatuksiin. Tässä vaiheessa kielellisten symbolien ketjutuksesta tuli luonnollisesti esiin nouseva ilmiö. Kun hominidin sanavarasto oli tarpeeksi laaja sisältämään toimintaa tai toimintaa ilmaisevia kohteita, siitä seuraisi, että hominidi ymmärsi toimijan ja toiminnan tai agentin ja toiminnan välisen suhteen. Näyttelijän ja toiminnan ketjuttaminen ilmenisi luonnollisesti.</t>
+  </si>
+  <si>
+    <t>Sanojen ketjuttaminen muodostaa suuremman kommunikatiivisen signaalin. Kun on ketjutusta, on olemassa vähintään sanajärjestyksen syntaktinen ilmiö. Mutta syntaksi sanajärjestyksen merkityksessä ei vaadi kvanttikognitiivista harppausta. Toiminnan tai toiminnan käsite merkitsee agentin tai toimijan olemassaoloa. Jos hominidilla oli sana toiminnalle, voimme olettaa, että hominidi ymmärsi jo, että toiminto vaati toimijan suorittamaan sen. Mitä tulee sanajärjestyksen vakautukseen, se on sosiaalinen sopimus, jonka yhteisön jäsenet neuvottelevat tietoisesti tai tiedostamatta.</t>
+  </si>
+  <si>
+    <t>Meillä on tähän mennessä olemassa historiallista kielitietoa, joka selittää lähes kaikkien kieliopillisten käytäntöjen syntymisen, olipa kyse sitten taivutus-, johtamis-, alisteis-, konjunktiivi-, kysely-, imperatiivi- tai subjunktiivista. Kielitieteilijät ovat kyenneet selvittämään tarkat prosessit ja mekanismit, joiden avulla kieliopilliset rakenteet voivat syntyä kielessä. Kielioppi on yksi tärkeimmistä mekanismeista kieliopin syntymisessä. Kielioppi alkoi tapahtua, kun hominidit alkoivat yhdistää symbolisia signaaleja suurempiin kommunikatiivisiin yksiköihin.</t>
+  </si>
+  <si>
+    <t>https://www.duodecimlehti.fi/duo93311</t>
+  </si>
+  <si>
+    <t>https://www.scienceandnonduality.com/article/to-be-conscious-of-consciousness-mirror-neurons-and-human-freedom</t>
+  </si>
+  <si>
+    <t>https://www.faena.com/aleph/mirror-neurons-the-key-to-self-consciousness-and-empathy</t>
+  </si>
+  <si>
+    <t>https://www.edge.org/3rd_culture/ramachandran07/ramachandran07_index.html</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Odeh-Turjman/publication/303566266_On_the_Role_of_Mirror_Neurons_in_the_Sense_of_Self/links/5748bf4208ae5bf2e63efb3e/On-the-Role-of-Mirror-Neurons-in-the-Sense-of-Self.pdf?origin=publication_detail</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29417320/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lyu7v7nWzfo</t>
+  </si>
+  <si>
+    <t>https://www.vecteezy.com/vector-art/4342239-teamwork-stickmen-businessmen-is-thoughtful-about-the-missing-puzzle-piece-hand-drawn-outline-cartoon-vector-illustration</t>
   </si>
 </sst>
 </file>
@@ -33264,8 +34626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4579D63D-F628-454F-B592-9C76DE826309}">
   <dimension ref="B2:B490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A229" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107:B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34943,10 +36305,540 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A3A83B-06EF-3342-9D10-0C03B1699C13}">
+  <dimension ref="A2:N56"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-4567</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4129</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-4560</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4130</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4550</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4131</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4132</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-4370</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-4300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4134</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>4135</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-4100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4136</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>4137</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-4200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4138</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-4200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4139</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-4100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4140</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>4141</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-2900</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4142</v>
+      </c>
+      <c r="N16" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-2700</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4143</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>4144</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-2300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4145</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-2100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4146</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>4147</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-1900</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4205</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-700</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4148</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-600</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4149</v>
+      </c>
+      <c r="N24" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>4150</v>
+      </c>
+      <c r="N25" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-640</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4151</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-580</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4152</v>
+      </c>
+      <c r="N27" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-550</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4153</v>
+      </c>
+      <c r="N28" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-540</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4154</v>
+      </c>
+      <c r="N29" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>4155</v>
+      </c>
+      <c r="N30" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-600</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4156</v>
+      </c>
+      <c r="N31" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-540</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4157</v>
+      </c>
+      <c r="N32" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-550</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4158</v>
+      </c>
+      <c r="N33" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-260</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4159</v>
+      </c>
+      <c r="N34" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>4160</v>
+      </c>
+      <c r="N35" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>4161</v>
+      </c>
+      <c r="N36" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>4162</v>
+      </c>
+      <c r="N37" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4163</v>
+      </c>
+      <c r="N38" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>4164</v>
+      </c>
+      <c r="N39" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>4165</v>
+      </c>
+      <c r="N40" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>4166</v>
+      </c>
+      <c r="N41" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>4167</v>
+      </c>
+      <c r="N42" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>4168</v>
+      </c>
+      <c r="N43" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>4169</v>
+      </c>
+      <c r="N44" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>4170</v>
+      </c>
+      <c r="N45" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>4171</v>
+      </c>
+      <c r="N46" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>4172</v>
+      </c>
+      <c r="N47" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>4173</v>
+      </c>
+      <c r="N48" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>4174</v>
+      </c>
+      <c r="N49" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>4175</v>
+      </c>
+      <c r="N50" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>4176</v>
+      </c>
+      <c r="N51" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>4177</v>
+      </c>
+      <c r="N52" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>4178</v>
+      </c>
+      <c r="N53" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>4179</v>
+      </c>
+      <c r="N54" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>4180</v>
+      </c>
+      <c r="N55" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>4181</v>
+      </c>
+      <c r="N56" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDD60DF-E07C-D14C-9815-B86460FCC8F7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B54"/>
     </sheetView>
   </sheetViews>
@@ -34955,6 +36847,2845 @@
     <col min="2" max="2" width="34.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA9D203-9732-0640-8A50-46C5B72CFD8C}">
+  <dimension ref="A1:B352"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.4375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>73</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>80</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>88</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>91</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>92</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>94</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>98</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>102</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>103</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>104</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>114</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>115</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>116</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>117</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>118</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>119</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>120</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>121</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>122</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>123</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>124</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>125</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>126</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>127</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>128</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>129</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>130</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>131</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>132</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>133</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>134</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>135</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>136</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>137</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>138</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>139</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>140</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>141</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>142</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>143</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>144</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>145</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>146</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>148</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>149</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>150</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>151</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>152</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>153</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>154</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>155</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>156</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>157</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>158</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>159</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>160</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>161</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>162</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>163</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>164</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>165</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>166</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>167</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>168</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>169</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>170</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>171</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>172</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>173</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>174</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>175</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>177</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>178</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>179</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>180</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>181</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>182</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>183</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>184</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>185</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>186</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>187</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>188</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>189</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>190</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>191</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>192</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>193</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>194</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>195</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>196</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>197</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>198</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>199</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>200</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>201</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>202</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>203</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>204</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>205</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>206</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>208</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>209</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>210</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>211</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>212</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>213</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>214</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>215</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>218</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>219</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>220</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>221</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>222</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>223</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>224</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>225</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>247</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>248</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>249</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>250</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>251</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>252</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>253</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>254</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>255</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>256</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>257</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>260</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>261</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>262</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>282</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>285</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>286</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>287</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>288</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>289</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>290</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>291</v>
+      </c>
+      <c r="B266" s="38" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>292</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>293</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>294</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>295</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>296</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>297</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>298</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>299</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>300</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>301</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>302</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>303</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>304</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>305</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>306</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>307</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>308</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>309</v>
+      </c>
+      <c r="B284" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>310</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>311</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>312</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>313</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>314</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>315</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>316</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>317</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>318</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>319</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>320</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>321</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>322</v>
+      </c>
+      <c r="B297" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>323</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>324</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>325</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>326</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>327</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>328</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>329</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>330</v>
+      </c>
+      <c r="B305" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>331</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>332</v>
+      </c>
+      <c r="B307" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>333</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>334</v>
+      </c>
+      <c r="B309" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>335</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>336</v>
+      </c>
+      <c r="B311" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>337</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>338</v>
+      </c>
+      <c r="B313" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>339</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>340</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>341</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>342</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>343</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>344</v>
+      </c>
+      <c r="B319" t="s">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>345</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>346</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>347</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>348</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>349</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>350</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>351</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>352</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>353</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>354</v>
+      </c>
+      <c r="B329" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>355</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>356</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>357</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>358</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>359</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>360</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>361</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>362</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>363</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>364</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>365</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>366</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>367</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>368</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>369</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>370</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>371</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>372</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>373</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>374</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>375</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>376</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>377</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B453" xr:uid="{5CA9D203-9732-0640-8A50-46C5B72CFD8C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B453">
+      <sortCondition ref="A1:A453"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B266" r:id="rId1" xr:uid="{EE81A587-23C9-7F49-AC63-F3E4B36231BF}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{A2ED2B8E-B0A3-BA42-BF26-39F97C842B73}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{A6018EEC-3B6A-B541-A462-A40B2F3BEE96}"/>
+    <hyperlink ref="B37" r:id="rId4" xr:uid="{DA528F84-53E3-4547-8EEB-D72E333F6712}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{F1D65602-C5D7-6546-883F-BE803992C491}"/>
+    <hyperlink ref="B39" r:id="rId6" xr:uid="{DD8F0A20-4DF9-7C4D-BB5C-05FF33086A29}"/>
+    <hyperlink ref="B40" r:id="rId7" xr:uid="{5657D0BC-53FE-0C4F-96F0-C7889A15159A}"/>
+    <hyperlink ref="B41" r:id="rId8" xr:uid="{2A398972-6475-CD40-8A3B-23B3EA3FF576}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{EFDC814D-5E35-854B-8182-671B39115150}"/>
+    <hyperlink ref="B43" r:id="rId10" xr:uid="{26832C7B-15F5-7C47-B0EA-B25376FBABE5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
